--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_42.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_42.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d81120-Reviews-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>203</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Best-Western-Los-Angeles-Worldport-Hotel.h429304.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_42.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_42.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="586">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1652 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/28/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r583889260-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>81120</t>
+  </si>
+  <si>
+    <t>583889260</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>Not too bad, but could be better</t>
+  </si>
+  <si>
+    <t>Not enough hot water for showers; bed creaks when you move even the slightest.  Lighting in room was poor.  The breakfast was very good; the help average.  We stayed here before so we returned.  Things have gone downhill.  We were told they are renovating; why they took so long to do this, I am not sure.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r576851094-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>576851094</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very pleasant experience.  We have stayed here before and will return again.  Quick check in and out.  The room was clean and bed and pillows were comfortable.  Love the easy and close exit and entrance to the freeway.  </t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r565817606-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>565817606</t>
+  </si>
+  <si>
+    <t>03/11/2018</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>Nice Hotel to get away and just relax the breakfast was ok due to the fact that the sausages were rubbery taste, and the stopper didn't work for the tub , but overall great time and good price , easy check in as well</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r553088955-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>553088955</t>
+  </si>
+  <si>
+    <t>01/10/2018</t>
+  </si>
+  <si>
+    <t>Hotel stay</t>
+  </si>
+  <si>
+    <t>Excellent.  Everything was great. Room was comfortable and clean.  Didn't use the A/C as it was cool outside so just opened the window for night time ventilation.  Bathroom had a bathtub and toilet and the sink and vanity was in the main living area.  The complimentary breakfast is what you would find in any hotel, basic offerings.  The area was neat and clean.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r546478291-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>546478291</t>
+  </si>
+  <si>
+    <t>12/10/2017</t>
+  </si>
+  <si>
+    <t>Exceed expectations</t>
+  </si>
+  <si>
+    <t>The place is not mind-blowing, but it is clean and well located. Public transportation is never a strong point of LA, but with the bus stop right in front of the hotel it is not too difficult to get to the down town of Long Beach. The room wall is however slightly too thin, and you can be disturbed by the people next door. There is still room for improvement for breakfast in terms of both variety and taste. But, hey, given the price, it's not too shabby at all.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r545690418-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>545690418</t>
+  </si>
+  <si>
+    <t>12/06/2017</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enjoyed my stay at this location! I didn’t wake up on time yo make it to breakfast but loved there was a Denny’s right next door! Staff was friendly despite us arriving at 2:30am! No complaints at all! </t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r542124124-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>542124124</t>
+  </si>
+  <si>
+    <t>11/19/2017</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>sick and tired of some bestwesterns refusing to let someone checkin a bit early, even though the maids have been cleaning rooms since the morning. this is bull. But if you are willing to pay $20.00 then all of a sudden they have a room. from now on i will check on this before i book a room again. to sit in the lobby for up to an hour because they refuse to accomodate you is ARROGANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r541295810-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>541295810</t>
+  </si>
+  <si>
+    <t>11/15/2017</t>
+  </si>
+  <si>
+    <t>Its ok.</t>
+  </si>
+  <si>
+    <t>The parking ain't the greatest, not much to do in that area.  The ggod thing is it's very close to the freeway, which is also bad if you're trying to get into this hotel during peak traffic time.  This place serves it's purpose I guess, nothing fancy or special, it could be worse I guess.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r540428579-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>540428579</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>Clean rooms, questionable area</t>
+  </si>
+  <si>
+    <t>This hotel was chosen only because we were unable to secure a room at other Best Western's in the Los Angeles area.The property itself is acceptable.  Friendly enough staff and clean rooms, but amenities (or lack thereof) tend to tell the story of the area and guests of this hotel.  A lack of towels in the bath/shower was the most glaring sign that the clientele was not to be trusted.Free breakfast, a staple of Best Western hotels, left a great deal to be desired.  Sausages served needed to be cut with a knife into bite-sized pieces, but the plastic utensils offered were too flimsy to do the job; scrambled eggs were tasteless.A decent place to stay in a pinch, but not one I would recommend or return to personally.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was chosen only because we were unable to secure a room at other Best Western's in the Los Angeles area.The property itself is acceptable.  Friendly enough staff and clean rooms, but amenities (or lack thereof) tend to tell the story of the area and guests of this hotel.  A lack of towels in the bath/shower was the most glaring sign that the clientele was not to be trusted.Free breakfast, a staple of Best Western hotels, left a great deal to be desired.  Sausages served needed to be cut with a knife into bite-sized pieces, but the plastic utensils offered were too flimsy to do the job; scrambled eggs were tasteless.A decent place to stay in a pinch, but not one I would recommend or return to personally.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r531876354-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>531876354</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>Great staff, roomy and clean hotel</t>
+  </si>
+  <si>
+    <t>The hotel is conveniently located next to the freeway. You will need a car to get around to the amenities although a Denny's is next door. The staff was friendly and helpful. Had to call maintenance once to fix a stuck drain, and they were prompt and took care of it. Will stay here again for future cruise sailings out of LA.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r515384511-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>515384511</t>
+  </si>
+  <si>
+    <t>08/19/2017</t>
+  </si>
+  <si>
+    <t>Will stay here again</t>
+  </si>
+  <si>
+    <t>Best internet connection speeds I have found in hotels in the area. Very clean rooms and polite staff. Made the stay very comfortable. Only down side is the entrance is right next to a busy road and can make getting in difficult at different times of the day.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r515064046-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>515064046</t>
+  </si>
+  <si>
+    <t>08/18/2017</t>
+  </si>
+  <si>
+    <t>Great value and service</t>
+  </si>
+  <si>
+    <t>Everyone was really friendly, the rooms were clean and comfortable, the breakfast was great (coffee could use an improvement but I'm picky), the hotel was conveniently located around beaches and there was a Denny's within walking distance which was nice.  I'll stay here again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r509485534-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>509485534</t>
+  </si>
+  <si>
+    <t>08/06/2017</t>
+  </si>
+  <si>
+    <t>Good family spot near LAX.  The rooms were decent.   Love that they can sleep 5 people comfortably.  Morning breakfast w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good family spot near airport.  The rooms were good, clean and comfortably slept 5    Didn't make it to the pool.  Breakfast was good.  Staff very friendly.  Only issue was key didn't work very well and staff couldn't fix it.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r509355272-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>509355272</t>
+  </si>
+  <si>
+    <t>Decent Hotel</t>
+  </si>
+  <si>
+    <t>For the price, the hotel was okay. I expected a bit more for what I paid comparing to similar priced hotels. However, it wasn't a bad experience. Here is the list of pros and cons...Pros:Affordable, rooms were clean, spacious rooms, good customer service, right off the freeway, good locationCons:Free breakfast (No cooked eggs), very limited selection, this is probably my worse experience with free breakfast from the hotels I've stayed, guess you shouldn't complain when it's free!! Haha but I am! Parking spaces are too small, again it's free so.... The t.v. is outdated with poor picture quality, the lightbulb in the room burned out on the flip of the switch (too tired to ask them to swap), old elevator.Well, there you have it. That's my opinion on this room. Would I stay here again, sure, if I don't find a similar priced room from a higher star hotel or brand. But other than that, it was a good experience and recommended for a nice clean room! Oh, there is a dennys within 1 minute walking distance from the hotel so if you aren't satisfied with your meal here ha! Hope this helps!!MoreShow less</t>
+  </si>
+  <si>
+    <t>For the price, the hotel was okay. I expected a bit more for what I paid comparing to similar priced hotels. However, it wasn't a bad experience. Here is the list of pros and cons...Pros:Affordable, rooms were clean, spacious rooms, good customer service, right off the freeway, good locationCons:Free breakfast (No cooked eggs), very limited selection, this is probably my worse experience with free breakfast from the hotels I've stayed, guess you shouldn't complain when it's free!! Haha but I am! Parking spaces are too small, again it's free so.... The t.v. is outdated with poor picture quality, the lightbulb in the room burned out on the flip of the switch (too tired to ask them to swap), old elevator.Well, there you have it. That's my opinion on this room. Would I stay here again, sure, if I don't find a similar priced room from a higher star hotel or brand. But other than that, it was a good experience and recommended for a nice clean room! Oh, there is a dennys within 1 minute walking distance from the hotel so if you aren't satisfied with your meal here ha! Hope this helps!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r508609823-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>508609823</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>The hotel is located right off the fwy, the rooms are very spacious. The parking area is a bit small. If you have a suv it can be tricky to get a decent parking spot without having to grab a piece of the parking next to you.The breakfast was ok. if you ask me the hash browns needed to be cooked a bit more and would've loved to have some scramble eggs instead but for being a complimentary breakfast it was good. The staff was very nice and helpful.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r507642688-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>507642688</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>Unless you know how to get into the parking lot, it may be a little odd to figure out at first. Once that is done parking is plentiful. Otherwise a good stay. Breakfast was a rather typical continental style and was also good.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r506661443-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>506661443</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Very Clean Hotel Good Location</t>
+  </si>
+  <si>
+    <t>Very clean Hotel and room.  Courteous staff.  Breakfast included with nice variety choice including cereal, bagel, muffin, fresh cooked waffles, eggs and sausages, fruits and yogurts as well as coffee, tea, orange juice and other fruit juices.  Free Wifi works great. The only negative was the TV resolution screen which was not very good.  Also, the proximity of the highway makes it a little noisy but it did not disrupt our sleep.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r503380491-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>503380491</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>trip to LA</t>
+  </si>
+  <si>
+    <t>This was an OK hotel to stay at. the room was nice and the housekeeping staff was phenomenal! however, the matress I had to sleep on was like sleeping on a concrete slab!! I told the front desk about it and all the guy could do was shrug his shoulders and grunt! some customer service. I asked if all the matresses were like this and he said I guess so?!? Some answer to receive! THe hotel entrance was terrible to get in and out of during afternoon traffic. Just about every day when I returned to the hotel, I had to go at least a block down the road, turn around and come back. Breakfast, for the few short days I could use it was OK but they don't open till 7 am and I had to be on my customer's site at 7...MoreShow less</t>
+  </si>
+  <si>
+    <t>This was an OK hotel to stay at. the room was nice and the housekeeping staff was phenomenal! however, the matress I had to sleep on was like sleeping on a concrete slab!! I told the front desk about it and all the guy could do was shrug his shoulders and grunt! some customer service. I asked if all the matresses were like this and he said I guess so?!? Some answer to receive! THe hotel entrance was terrible to get in and out of during afternoon traffic. Just about every day when I returned to the hotel, I had to go at least a block down the road, turn around and come back. Breakfast, for the few short days I could use it was OK but they don't open till 7 am and I had to be on my customer's site at 7...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r499035135-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>499035135</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t>Stay At BW</t>
+  </si>
+  <si>
+    <t>Very good service. The people works there are helping us to have a good time. Room is clean and provide very good breakfirst.  This Best Western is located in the busy portion of high way 1 and some time it is not easy to get in.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r498741309-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>498741309</t>
+  </si>
+  <si>
+    <t>07/04/2017</t>
+  </si>
+  <si>
+    <t>THE WORST HOTEL</t>
+  </si>
+  <si>
+    <t>Let's begin with the monotone front desk associate. While the young woman was not rude, she held no personable customer service attributes and snarled at me when I asked why I needed to sign a nondisclosure regarding smoking in the rooms. She was intense about it and made me uncomfortable. We're not smokers, period. Our room smelled like an ashtray though and where possible hookers urinate on their clientele. The smell was atrocious. My husband hates confrontation and insisted that we not complain, so I took matters into my own hands. I went to target to purchase our own sheets and blankets because ours smelled and had stains, yuck! The breakfast was well below standards, even for BW. The eggs appeared the worst, we left and found a nice cafe within reasonable price range. While I know that much of a vacation isn't spent in your hotel room, I'd still like to experience comfort while I need to be in there. The toilet hardly flushed and the shower did have proper water pressure. I've experienced better pressure in a rinky dink trailer of South Phoenix. For the same price as other competing hotels, you need to step up your game or lower your prices. Paying almost $300 for two nights of scum, was DISAPPOINTING. I will never stay at BW again!MoreShow less</t>
+  </si>
+  <si>
+    <t>o5581, Manager at Best Western Los Angeles Worldport Hotel, responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Let's begin with the monotone front desk associate. While the young woman was not rude, she held no personable customer service attributes and snarled at me when I asked why I needed to sign a nondisclosure regarding smoking in the rooms. She was intense about it and made me uncomfortable. We're not smokers, period. Our room smelled like an ashtray though and where possible hookers urinate on their clientele. The smell was atrocious. My husband hates confrontation and insisted that we not complain, so I took matters into my own hands. I went to target to purchase our own sheets and blankets because ours smelled and had stains, yuck! The breakfast was well below standards, even for BW. The eggs appeared the worst, we left and found a nice cafe within reasonable price range. While I know that much of a vacation isn't spent in your hotel room, I'd still like to experience comfort while I need to be in there. The toilet hardly flushed and the shower did have proper water pressure. I've experienced better pressure in a rinky dink trailer of South Phoenix. For the same price as other competing hotels, you need to step up your game or lower your prices. Paying almost $300 for two nights of scum, was DISAPPOINTING. I will never stay at BW again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r495199971-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>495199971</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>Get away!!</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay this was one of my favorite Best Western Hotels I've ever stayed in. I just wish there were more channel options on the tv. The breakfast was nice and the eating area was clean. I definitely will be back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r492910909-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>492910909</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>The rooms are comfortable and well appointed.  They are not too well insulated for sound.  The hotel is in an industrial area with older apartments.  It's not too far from a number of tourist attractions.   We will stay there again.  .</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r490343986-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>490343986</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>Disaster</t>
+  </si>
+  <si>
+    <t>No TV service in room, broken a/c in room, 6-8 comforters stored between mattress and box spring, one single working outlet in room, internet out in lobby and broken lobby printer (unable to print boarding passes), generally dirty everywhere, unfriendly staff. Very disappointed in this location. Best Western is usually an impressive stay no matter where you go, except LA Worldport.MoreShow less</t>
+  </si>
+  <si>
+    <t>BestWesternHotels, Corporate at Best Western Los Angeles Worldport Hotel, responded to this reviewResponded June 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2017</t>
+  </si>
+  <si>
+    <t>No TV service in room, broken a/c in room, 6-8 comforters stored between mattress and box spring, one single working outlet in room, internet out in lobby and broken lobby printer (unable to print boarding passes), generally dirty everywhere, unfriendly staff. Very disappointed in this location. Best Western is usually an impressive stay no matter where you go, except LA Worldport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r488956310-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>488956310</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>average hotel</t>
+  </si>
+  <si>
+    <t>Each location varies of their services and products.Well known franchise hotel should carry on their reputation around the globe. As former employee of Best Western, training for staff is mandatory in order to deliver good service.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r478660133-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>478660133</t>
+  </si>
+  <si>
+    <t>04/24/2017</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>Was in town for a quick getaway and this hotel meet my expectations and needs.ill be back for sure to experience. The town and cities surrounding lots of places to see and enjoy close to Hollywood and LAC</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r474262548-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>474262548</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Good place to stay when visiting the port</t>
+  </si>
+  <si>
+    <t>Very clean and recently renovated rooms. Queen and King rooms have sitting desk and working desk with excellent WiFi reception in rooms. Hotel is well managed with lots of parking. Rates are reasonable for this part of town.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r468702582-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>468702582</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>Our stay at the Best Western Hotel</t>
+  </si>
+  <si>
+    <t>We always enjoyed our stays at the Best Western Hotel.  We used to always stay there in the past during our annual trip to Bremerton Washington for golfing.  A couple of times we took our grandkids to Seattle Washington for shopping and leisure and stayed at the Best Western Hotel. I'm sure that in the future, we'll still stay at the Best Western as well as recommend it to some of our friends.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r462614275-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>462614275</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>Good hotel with easy parking</t>
+  </si>
+  <si>
+    <t>This hotel has easy parking and a pleasant staff that are very helpful.  Breakfast is minimal as is expected for this level of Best Western. But the breakfast room is clean and nice.  Rooms/bathrooms are outdated, but also as expected for this level of hotel.  The Internet service was reliable and reasonably easy to access.  It is tricky to enter or exit the hotel driveway due to the proximity to the freeway and that it is on PCH. The road is very busy (all the time), but is horrible at rush hour. Impossible to turn left during these times.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r459901660-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>459901660</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>Wilmington Best Western</t>
+  </si>
+  <si>
+    <t>Hotel was good quality for money paid. My only criticism was that the desk chair in the room had the leather/imitation leather was peeling, so it didn't look nice. The bed was very comfortable and the other amenities were fine. I called the office twice and received very speedy and efficient service.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r458181902-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>458181902</t>
+  </si>
+  <si>
+    <t>02/08/2017</t>
+  </si>
+  <si>
+    <t>It's ok</t>
+  </si>
+  <si>
+    <t>The rooms were clean and the shower had great water pressure (important to women with long hair).  I did not find the bed to be very comfortable however, it was too hard for my taste.  Also, there is a fair amount of road traffic you can hear in the room (if that bothers you).  The internet was not very strong.  It's an ok place to lay your head for the night, and it's probably the best you'll find for the price; but, I don't think I'd want to have an extended stay there.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r426546382-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>426546382</t>
+  </si>
+  <si>
+    <t>10/09/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel for a small price</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at the Best Western. The hotel is very clean and my room was cleaned everyday by housekeeping. I'm not sure about breakfast because I didn't try it. The only complaint I have is the entrance into the hotel. It's on a very busy street and it's hard to turn in with traffic.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r426068295-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>426068295</t>
+  </si>
+  <si>
+    <t>10/07/2016</t>
+  </si>
+  <si>
+    <t>Very comfortable and quiet</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel numerous times and have had great experiences each time. The rooms smell good even the smoking rooms. The beds are big and comfy, adequate tv channels, the windows actually open so you can feel the California weather. The halls were very hot on my last stay no biggie! The shower feels good, nice and hot. They need to do a better job for breakfast but there is however a Ihop next door, I've never eaten there though. Overall I will still stay there over and over.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r424797218-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>424797218</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t>Billed as "Plus," definitely not!</t>
+  </si>
+  <si>
+    <t>Great location if you want to get on Hwy 110 or Pacific Coast Hwy, but terrible for sleep.  Cars peeling out and revving their engines all hours of the night, and this hotel is right at the intersection.  While it was very clean, there are no real extra's.  No coffee in the lobby, and breakfast isn't open until 7 AM.  The coffee maker in the room only made one cup - for three adults?  The TV selection was poor, and no guide was provided.  No Best Western book in our room, so we didn't know what was nearby.  No grab bar or mat in the tub, which made it a safety hazard.  Breakfast was mediocre, just grab and go stuff.  Only an outdoor pool which opens only to stairs (so not wheelchair accessible), and no workout room.  There was a convenience store and gas station across the street - if you wanted to risk life and limb getting there!  Otherwise, walking score was zero (nearest grocery was about a mile away).  Definitely not worth the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Great location if you want to get on Hwy 110 or Pacific Coast Hwy, but terrible for sleep.  Cars peeling out and revving their engines all hours of the night, and this hotel is right at the intersection.  While it was very clean, there are no real extra's.  No coffee in the lobby, and breakfast isn't open until 7 AM.  The coffee maker in the room only made one cup - for three adults?  The TV selection was poor, and no guide was provided.  No Best Western book in our room, so we didn't know what was nearby.  No grab bar or mat in the tub, which made it a safety hazard.  Breakfast was mediocre, just grab and go stuff.  Only an outdoor pool which opens only to stairs (so not wheelchair accessible), and no workout room.  There was a convenience store and gas station across the street - if you wanted to risk life and limb getting there!  Otherwise, walking score was zero (nearest grocery was about a mile away).  Definitely not worth the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r405976098-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>405976098</t>
+  </si>
+  <si>
+    <t>08/15/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>We booked another hotel in L.A., it was really terrible, later we changed into this hotel. It located in a nice place which is close to the airport, they have shuttle bus could send costumers to airport. But this hotel is not very close to the Universal Studio. L.A. has a little busy traffic, 30-40 mins from this hotel to Universal Studio. Nice employees, they're really helpful. Not bad breakfast. Worth to stay.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r400664647-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>400664647</t>
+  </si>
+  <si>
+    <t>08/02/2016</t>
+  </si>
+  <si>
+    <t>Hotel is ok except for the bed</t>
+  </si>
+  <si>
+    <t>The staff was wonderful, but the bed was just awful. It was as hard as a rock and I left completely exhausted because I could not sleep. There were no other rooms available so I was given blankets to pad the mattress. I would have checked out and moved to another hotel but everything was booked. There is road construction in front of the hotel that makes entering and exiting difficult but my room was surprisingly quiet.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r397614416-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>397614416</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Summervacation2016</t>
+  </si>
+  <si>
+    <t>I didn't have any problem with location, price and room! It's decent for amount of money that I pay! All things inside was working. We even have small refrigerator! Wish they have microwave! Reception was nice and friendly! We had small talked ask me what part of Florida I'm from, when she saw my Drivers lic! Inform me about continental breakfast! Next to hotel was Denny's ! Parking was easy no problem! Secure! Internet was free so I can't complain that sometimes is slow! Over all is good place to stay, I have 2 small kids with me and my husband! Good driving distance to all the place we visit! I can come back again for future use!  MoreShow less</t>
+  </si>
+  <si>
+    <t>I didn't have any problem with location, price and room! It's decent for amount of money that I pay! All things inside was working. We even have small refrigerator! Wish they have microwave! Reception was nice and friendly! We had small talked ask me what part of Florida I'm from, when she saw my Drivers lic! Inform me about continental breakfast! Next to hotel was Denny's ! Parking was easy no problem! Secure! Internet was free so I can't complain that sometimes is slow! Over all is good place to stay, I have 2 small kids with me and my husband! Good driving distance to all the place we visit! I can come back again for future use!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r385452712-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>385452712</t>
+  </si>
+  <si>
+    <t>06/20/2016</t>
+  </si>
+  <si>
+    <t>No Quality</t>
+  </si>
+  <si>
+    <t>The Staff is not helpful, bad internet, questionable food, and always remodeling with no visible improvement to the facility. It is hard to get into parking lot because the facility is next to the freeway.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r376318127-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>376318127</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t>Very Noisy</t>
+  </si>
+  <si>
+    <t>Very noisy hotel - needs better noise level struscture the windows need to keep the noise out not in the hotel needs to have better windows since the hotel is right off the fwy exit Kids running around at 7 am in the hallways  I was there for a conference and never again will I recommend this hotel to any of my friends and family.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r375998471-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>375998471</t>
+  </si>
+  <si>
+    <t>05/23/2016</t>
+  </si>
+  <si>
+    <t>Quite Clean and friendly staff</t>
+  </si>
+  <si>
+    <t>I look for a clean room; I found one; we will be back!  You will not be dissatisfied with the quality of the room you are given.  Breakfast coffee great;  other items on menu I could take or leave, but...my interest was the cleanliness of the room and received this.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r367078178-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>367078178</t>
+  </si>
+  <si>
+    <t>04/24/2016</t>
+  </si>
+  <si>
+    <t>Handicap room on the 2nd floor.</t>
+  </si>
+  <si>
+    <t>This hotel was adequate for our purpose.  We were  leaving on a cruise the next day and only needed it for 1 night. The room was clean but the A/C fan was making a terrible noise so we could not use it.  My main concern was that the handicap room we booked was on the 2nd floor when I specified a ground floor room.  In the event of a fire or earthquake, my husband would have not been able to get out as he cannot walk.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r363304818-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>363304818</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decent accommodations </t>
+  </si>
+  <si>
+    <t>Stayed here for a night. Breakfast was good, pleasant staff. Only complaint was that the tenants in the apartment building behind the hotel were VERY noisy throughout the night. And, I had a hard time connecting to the free wifi. I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r357970687-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>357970687</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Wonderful Place to Stay</t>
+  </si>
+  <si>
+    <t>The people were great, the suite outstanding and a really nice breakfast. Booked us in several hours early to large comfortable suite. When we were leaving very early before breakfast were given Danish and coffee.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r347011034-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>347011034</t>
+  </si>
+  <si>
+    <t>02/11/2016</t>
+  </si>
+  <si>
+    <t>Average Stay - Manager Working Hard to Address Issues</t>
+  </si>
+  <si>
+    <t>Older, well worn hotel.  The lobby was very large and fairly unwelcoming - it seemed to need more furnishings.  Our room appeared clean enough and the countertop to the vanity area seems to have been recently renovated.  There was a nice size TV (42” perhaps) mounted to the wall and our room had enough space.  The entire place could do with a remodel.  The power outlets were not really accessible.  There was nothing near the bed where I had to sit (the room didn’t have an easy chair, only a table with two chairs and no outlets there either).  There was no lobby coffee and no microwaves in room - but there was one in the breakfast area that the front desk staff would unlock for us to use.  This microwave was super as it was 1200 watts and cooked our popcorn perfectly in 90 seconds.  Internet was not very robust and I could not stream videos. 
+There were no grab bars of any kind in the tub - we didn’t feel very secure using it.  The sink area is in the main part of the room and had a generous vanity that also held the in room coffee items and the ice bucket.
+The smoking rooms are on the top floor so, if you are a nonsmoker you won’t want to be there.  
+Our bed was interesting as it shook every time one of us moved or coughed.  The...Older, well worn hotel.  The lobby was very large and fairly unwelcoming - it seemed to need more furnishings.  Our room appeared clean enough and the countertop to the vanity area seems to have been recently renovated.  There was a nice size TV (42” perhaps) mounted to the wall and our room had enough space.  The entire place could do with a remodel.  The power outlets were not really accessible.  There was nothing near the bed where I had to sit (the room didn’t have an easy chair, only a table with two chairs and no outlets there either).  There was no lobby coffee and no microwaves in room - but there was one in the breakfast area that the front desk staff would unlock for us to use.  This microwave was super as it was 1200 watts and cooked our popcorn perfectly in 90 seconds.  Internet was not very robust and I could not stream videos. There were no grab bars of any kind in the tub - we didn’t feel very secure using it.  The sink area is in the main part of the room and had a generous vanity that also held the in room coffee items and the ice bucket.The smoking rooms are on the top floor so, if you are a nonsmoker you won’t want to be there.  Our bed was interesting as it shook every time one of us moved or coughed.  The mattress looked different than anything I’ve seen in a hotel before and it reminded me of those I've seen in university residence halls.  We would have done much better with two beds.  Hal, the manager was very understanding when I explained the issue and he said he’d be replacing the bed in our room (324).  He was very concerned about our discomfort and I was impressed by his reaction.  If two people will be occupying the room, I’d recommend checking the bed immediately or opt for a room with two beds.Breakfast was continental but sufficient.  They had cereal, a waffle maker, hard boiled eggs, oatmeal packages, Yoplait yogurt, breads for toasting and sweet rolls.  Nothing else was really needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Older, well worn hotel.  The lobby was very large and fairly unwelcoming - it seemed to need more furnishings.  Our room appeared clean enough and the countertop to the vanity area seems to have been recently renovated.  There was a nice size TV (42” perhaps) mounted to the wall and our room had enough space.  The entire place could do with a remodel.  The power outlets were not really accessible.  There was nothing near the bed where I had to sit (the room didn’t have an easy chair, only a table with two chairs and no outlets there either).  There was no lobby coffee and no microwaves in room - but there was one in the breakfast area that the front desk staff would unlock for us to use.  This microwave was super as it was 1200 watts and cooked our popcorn perfectly in 90 seconds.  Internet was not very robust and I could not stream videos. 
+There were no grab bars of any kind in the tub - we didn’t feel very secure using it.  The sink area is in the main part of the room and had a generous vanity that also held the in room coffee items and the ice bucket.
+The smoking rooms are on the top floor so, if you are a nonsmoker you won’t want to be there.  
+Our bed was interesting as it shook every time one of us moved or coughed.  The...Older, well worn hotel.  The lobby was very large and fairly unwelcoming - it seemed to need more furnishings.  Our room appeared clean enough and the countertop to the vanity area seems to have been recently renovated.  There was a nice size TV (42” perhaps) mounted to the wall and our room had enough space.  The entire place could do with a remodel.  The power outlets were not really accessible.  There was nothing near the bed where I had to sit (the room didn’t have an easy chair, only a table with two chairs and no outlets there either).  There was no lobby coffee and no microwaves in room - but there was one in the breakfast area that the front desk staff would unlock for us to use.  This microwave was super as it was 1200 watts and cooked our popcorn perfectly in 90 seconds.  Internet was not very robust and I could not stream videos. There were no grab bars of any kind in the tub - we didn’t feel very secure using it.  The sink area is in the main part of the room and had a generous vanity that also held the in room coffee items and the ice bucket.The smoking rooms are on the top floor so, if you are a nonsmoker you won’t want to be there.  Our bed was interesting as it shook every time one of us moved or coughed.  The mattress looked different than anything I’ve seen in a hotel before and it reminded me of those I've seen in university residence halls.  We would have done much better with two beds.  Hal, the manager was very understanding when I explained the issue and he said he’d be replacing the bed in our room (324).  He was very concerned about our discomfort and I was impressed by his reaction.  If two people will be occupying the room, I’d recommend checking the bed immediately or opt for a room with two beds.Breakfast was continental but sufficient.  They had cereal, a waffle maker, hard boiled eggs, oatmeal packages, Yoplait yogurt, breads for toasting and sweet rolls.  Nothing else was really needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r345105224-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>345105224</t>
+  </si>
+  <si>
+    <t>02/04/2016</t>
+  </si>
+  <si>
+    <t>unsafe</t>
+  </si>
+  <si>
+    <t>car broken into and 2 carryons taken. GenMgr never was in attendance or called me. $230 to repair window and not a word about their culpability. I asked to park in front-they said no park in underground spots.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r341107355-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>341107355</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>Noisey Stairway Door</t>
+  </si>
+  <si>
+    <t>My room was located next to stair entrance.  Through the night I become aware of the stair door being closed.  The noise was a very short metalic sound, yet loud enough to wake me up from my sleep.  The interruption occurred at least 10 times.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r332203712-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>332203712</t>
+  </si>
+  <si>
+    <t>12/11/2015</t>
+  </si>
+  <si>
+    <t>Nice stay and helpful staff</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay  We left our vehicle there while taking a two week cruise.  Have booked this hotel again for a future cruise. Very helpful staff. Breakfast area could use more seating. A  bit difficult to get to this hotel as you must make a U-turn on a busy street.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r330946201-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>330946201</t>
+  </si>
+  <si>
+    <t>12/05/2015</t>
+  </si>
+  <si>
+    <t>Location of Hotel is central to my So Cal Family</t>
+  </si>
+  <si>
+    <t>Staff was very helpful in describing area and how to travel within Wilmington.This area was very different from when I was a child and I was trying to locate my grandparents' home which is so very near this Best Western.  We will return.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r329386677-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>329386677</t>
+  </si>
+  <si>
+    <t>11/27/2015</t>
+  </si>
+  <si>
+    <t>First time</t>
+  </si>
+  <si>
+    <t>This hotel is alright. Does need updating.Despite it being holiday the hotel was quiet which was nice. Room itself is outdated and needed a new mini fridge and coffee maker. TV was old and has less than 30 channels with nothing on. Atleast the wifi was decent. I don't like the 2 sided door sign with one that do not disturb and the other says please clean. I think people go by and flip them over because I got a knock my door from housekeeping. There is plenty of parking and they have luggage carts. I'd maybe stay again if they improve the hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r325626579-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>325626579</t>
+  </si>
+  <si>
+    <t>11/09/2015</t>
+  </si>
+  <si>
+    <t>Great place to leave your car when cruising from Los Angeles CA at San Pedro Worldport</t>
+  </si>
+  <si>
+    <t>Nice hotel for the purpose of leaving your car when taking a cruise. For a one night stay you can leave your car for up to 14 days. They do not offer shuttle service. We take a cab to the port. Much more convenient. With tip taxi fair around $20. When we return another cab back to the hotel to get the car. Easier than waiting for a hotel shuttle bus. Breakfast we skipped but went next door to Denny's instead. Room nice size, comfortable bed, good shower. Getting there off the 110 on to Pacific Coast Highway a little tricky, busy corner. My GPS made me turn left (east) on PCH but coming south make a right onto PCH, hotel on the left after you turn next to Denny's.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice hotel for the purpose of leaving your car when taking a cruise. For a one night stay you can leave your car for up to 14 days. They do not offer shuttle service. We take a cab to the port. Much more convenient. With tip taxi fair around $20. When we return another cab back to the hotel to get the car. Easier than waiting for a hotel shuttle bus. Breakfast we skipped but went next door to Denny's instead. Room nice size, comfortable bed, good shower. Getting there off the 110 on to Pacific Coast Highway a little tricky, busy corner. My GPS made me turn left (east) on PCH but coming south make a right onto PCH, hotel on the left after you turn next to Denny's.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r324323963-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>324323963</t>
+  </si>
+  <si>
+    <t>11/02/2015</t>
+  </si>
+  <si>
+    <t>A place Where the Parking pays your way</t>
+  </si>
+  <si>
+    <t>Free watched parking while your on a cruise.  Most lots near the  piers charge around $16 a night with  a free shuttle.  At the world Port you have to you get a Taxi for around $20.00. A good bargain by any measure</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r323796222-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>323796222</t>
+  </si>
+  <si>
+    <t>11/01/2015</t>
+  </si>
+  <si>
+    <t>Good hotel in its class</t>
+  </si>
+  <si>
+    <t>We were visiting grandchildren in the San Pedro area and normally stay in the Best Western Plus on Gaffey St., but even though we'd booked several months in advance, that hotel did not have 5 consecutive nights open during our visit.  Good medium-range price hotels are rare in the port area so we booked a room at Best Western LA Worldport only 10 minutes north of our son's house. The location is a very busy one (almost under I-110) so we asked for a far room.   The first problem was the king bed. Every time one of us moved, the other would feel it like an ocean wave. The second problem presented itself at 2:00 a.m. when very loud noise from a party in the adjoining room filtered through the door. (Avoid adjoining rooms.) We called management but the noise continued another hour.  Next morning we spoke with the Manager, Hal, and he addressed the situation immediately. He took time to speak with us at length to determine the problems and took immediate action.  Our room was changed to a quiet, non-adjoining type room and we heard no more noise for the rest of our stay. Hal had housekeeping exchange the mattress in the new room for a new mattress from their warehouse next door and, although it was slightly less 'wave-inducing' than the first one, still did not come up to the standard of mattress a hotel of this...We were visiting grandchildren in the San Pedro area and normally stay in the Best Western Plus on Gaffey St., but even though we'd booked several months in advance, that hotel did not have 5 consecutive nights open during our visit.  Good medium-range price hotels are rare in the port area so we booked a room at Best Western LA Worldport only 10 minutes north of our son's house. The location is a very busy one (almost under I-110) so we asked for a far room.   The first problem was the king bed. Every time one of us moved, the other would feel it like an ocean wave. The second problem presented itself at 2:00 a.m. when very loud noise from a party in the adjoining room filtered through the door. (Avoid adjoining rooms.) We called management but the noise continued another hour.  Next morning we spoke with the Manager, Hal, and he addressed the situation immediately. He took time to speak with us at length to determine the problems and took immediate action.  Our room was changed to a quiet, non-adjoining type room and we heard no more noise for the rest of our stay. Hal had housekeeping exchange the mattress in the new room for a new mattress from their warehouse next door and, although it was slightly less 'wave-inducing' than the first one, still did not come up to the standard of mattress a hotel of this caliber should be using. That being said, we slept quite well the next four nights, in part because we felt Hal addressed our complaints with quick action and empathy. Thank you, Hal!MoreShow less</t>
+  </si>
+  <si>
+    <t>We were visiting grandchildren in the San Pedro area and normally stay in the Best Western Plus on Gaffey St., but even though we'd booked several months in advance, that hotel did not have 5 consecutive nights open during our visit.  Good medium-range price hotels are rare in the port area so we booked a room at Best Western LA Worldport only 10 minutes north of our son's house. The location is a very busy one (almost under I-110) so we asked for a far room.   The first problem was the king bed. Every time one of us moved, the other would feel it like an ocean wave. The second problem presented itself at 2:00 a.m. when very loud noise from a party in the adjoining room filtered through the door. (Avoid adjoining rooms.) We called management but the noise continued another hour.  Next morning we spoke with the Manager, Hal, and he addressed the situation immediately. He took time to speak with us at length to determine the problems and took immediate action.  Our room was changed to a quiet, non-adjoining type room and we heard no more noise for the rest of our stay. Hal had housekeeping exchange the mattress in the new room for a new mattress from their warehouse next door and, although it was slightly less 'wave-inducing' than the first one, still did not come up to the standard of mattress a hotel of this...We were visiting grandchildren in the San Pedro area and normally stay in the Best Western Plus on Gaffey St., but even though we'd booked several months in advance, that hotel did not have 5 consecutive nights open during our visit.  Good medium-range price hotels are rare in the port area so we booked a room at Best Western LA Worldport only 10 minutes north of our son's house. The location is a very busy one (almost under I-110) so we asked for a far room.   The first problem was the king bed. Every time one of us moved, the other would feel it like an ocean wave. The second problem presented itself at 2:00 a.m. when very loud noise from a party in the adjoining room filtered through the door. (Avoid adjoining rooms.) We called management but the noise continued another hour.  Next morning we spoke with the Manager, Hal, and he addressed the situation immediately. He took time to speak with us at length to determine the problems and took immediate action.  Our room was changed to a quiet, non-adjoining type room and we heard no more noise for the rest of our stay. Hal had housekeeping exchange the mattress in the new room for a new mattress from their warehouse next door and, although it was slightly less 'wave-inducing' than the first one, still did not come up to the standard of mattress a hotel of this caliber should be using. That being said, we slept quite well the next four nights, in part because we felt Hal addressed our complaints with quick action and empathy. Thank you, Hal!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r315737517-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>315737517</t>
+  </si>
+  <si>
+    <t>10/02/2015</t>
+  </si>
+  <si>
+    <t>Family Support</t>
+  </si>
+  <si>
+    <t>I was able to book, for the best rate, a smoking room at this visit.  The last time I stayed it was a non-smoking room.  I want to complement the staff that I did not notice any offending odor of smoke in the room.  Thank you for that.  The only difference is the bed covers where not as nice as the non-smoking rooms.  I can completely understand why this may happen.  The internet speed was GREAT.  Though it was a Family travel deal I was able to pop into my work server and get a few things done.  Thank you making the internet available.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r314200214-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>314200214</t>
+  </si>
+  <si>
+    <t>09/27/2015</t>
+  </si>
+  <si>
+    <t>very good</t>
+  </si>
+  <si>
+    <t>i just find this location i was with my girlfriend and we have very good experience with this hotel and room room was really clean fresh air with perfect AC unite  service was excellent  people working at lobby doing good job friendly and fast  I'm prey sure we come back and choose this location again  come back soon   thank you</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r303573225-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>303573225</t>
+  </si>
+  <si>
+    <t>08/25/2015</t>
+  </si>
+  <si>
+    <t>Excellent Hotel in Los Angeles</t>
+  </si>
+  <si>
+    <t>Hotel priced right, in the area of LA we were visiting to spend time with family.  Only drawback was parking was tight for a pickup as most was for compact vehicles and the hotel was located on a corner so it was tough getting in and out of lot onto the street due to traffic buildup at the light.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r296508712-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>296508712</t>
+  </si>
+  <si>
+    <t>08/06/2015</t>
+  </si>
+  <si>
+    <t>Attentive Staff, Comfortable Stay</t>
+  </si>
+  <si>
+    <t>The staff at this location was very kind, attentive and willing to accommodate reasonable requests. We were greeted each morning by, presumably, the manager who was very cheerful and the staff in the breakfast area actually engaged in conversation. It was very busy, but everyone appeared to be content. The rooms were clean and comfortable. It is next to the freeway and in the city, so more sensitive sleepers might find that challenging.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r290004334-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>290004334</t>
+  </si>
+  <si>
+    <t>07/17/2015</t>
+  </si>
+  <si>
+    <t>Average Older Hotel that shows its age</t>
+  </si>
+  <si>
+    <t>The room and Bed were clean and  OK but the facility is older and shows its age. There was no coffee in the room, and the adjacent restaurant is a Denny's. Parking is adequate, but traffic on the street would not allow a left turn out of the parking lot.  Little inconveniences make this only an adequate facility.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r285958859-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>285958859</t>
+  </si>
+  <si>
+    <t>07/05/2015</t>
+  </si>
+  <si>
+    <t>Pleasently surprised</t>
+  </si>
+  <si>
+    <t>We had an enjoyable time except for the noisy party out on the patio until about 2:00 AM.  It seemed directly under our window.  Other than that, we enjoyed our stay and would certainly entertain staying there again when the occasion arises.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r272979795-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>272979795</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>A satisfying stay</t>
+  </si>
+  <si>
+    <t>Our stay at Best Western, Burbank, Los Angeles, was comfortable and satisfying. The weekend breakfast was more wholesome than on weekdays. The service was good and the hotel provides value for money. Covered parking facility was an added bonus.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r271224966-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>271224966</t>
+  </si>
+  <si>
+    <t>05/10/2015</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>I was a little skeptical about this place because of the reviews but it turned out to be pretty decent.  The service could definitely be better but the place was good enough for one night.  Cleaning wasn't such an issue in my room but I heard other people complaining that were walking by me.   I suppose you can give it a try</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r261819014-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>261819014</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>Better customer service could have made it lot better</t>
+  </si>
+  <si>
+    <t>Rooms Okay, nothing great: lack the ambience and the bed furnishings are poor. The room size is smallToilet: HorribleBreakfast: It was terribly crowded with no seats and extremely poorly managedFront Office: Lesser said the better, their keeping $50 as security was outrageous topped up with lot of deliberate delay in refunding it.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r251162252-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>251162252</t>
+  </si>
+  <si>
+    <t>01/22/2015</t>
+  </si>
+  <si>
+    <t>Excellent value</t>
+  </si>
+  <si>
+    <t>Excellent value, great service.....has to be the top hotel in the area. Pleasant, efficient staff, clean room, ample parking.  After a long day at a trade show,, it was a very relaxing, peaceful environment to come "home" too.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r247628728-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>247628728</t>
+  </si>
+  <si>
+    <t>01/05/2015</t>
+  </si>
+  <si>
+    <t>Good Service, Near Port</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel because my sister told me that they have free shuttle and free parking at  their facility. Imagine my disappointment when Vanessa at front desk told me that they can get my family a cab to port and leave our SUV at the hotel parking structure for the nominal fee of $10. I told her I will just drive to port the next day because it will be less expensive for us to just pay the port parking fee without having to pay for cab (suggestion to management, why not offer free port shuttle since your hotel is near the port). The room was clean and nice, the street noise didn't bother us too much. The breakfast attendant Patricia was very attentive and pleasant. Overall experience, not bad...MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel because my sister told me that they have free shuttle and free parking at  their facility. Imagine my disappointment when Vanessa at front desk told me that they can get my family a cab to port and leave our SUV at the hotel parking structure for the nominal fee of $10. I told her I will just drive to port the next day because it will be less expensive for us to just pay the port parking fee without having to pay for cab (suggestion to management, why not offer free port shuttle since your hotel is near the port). The room was clean and nice, the street noise didn't bother us too much. The breakfast attendant Patricia was very attentive and pleasant. Overall experience, not bad...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r245709593-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>245709593</t>
+  </si>
+  <si>
+    <t>12/23/2014</t>
+  </si>
+  <si>
+    <t>Great Place for Pre-Cruise stay</t>
+  </si>
+  <si>
+    <t>Clean, nice staff, breakfast OK.  Great place to stay pre-cruise.  We drove in from WA state.  They let us leave our car parked in their covered parking for free while we were at sea for 8 days.  We did have to get a taxi to and from the cruise port but the 2 night stay at $99 per night and free parking was much cheaper than hotels closer to San Pedro.  Highly recommend.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r234238145-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>234238145</t>
+  </si>
+  <si>
+    <t>10/13/2014</t>
+  </si>
+  <si>
+    <t>This Best Western hotel is just off the 110 Freeway and convenient for family to visit with us at the hotel. Their parking area is fenced and monitored. I also discovered it is a great place to stay just before taking a cruise.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r234238090-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>234238090</t>
+  </si>
+  <si>
+    <t>Worst Lodging Experience EVER</t>
+  </si>
+  <si>
+    <t>We arrived at the Los Angeles WorldPort Best Western, at 6:44 p.m., on Saturday, October 11, 2014. Upon entering our reserved, paid for room at 6:50 p.m., we found the room unattended to; the bed was used, trash in the garbage can, and used towels with questionable substances on the bathroom sink.  We captured photos of the scene and returned to the front desk to confront the attendant.  Unfortunately, the individual was inexperienced and did not fully comprehend the inconvenience we were subjected to.  What made the situation unbearable was after driving two hours from Bakersfield, California, intending to arrive at the lodging location for a prepared room with enough time to spare to shower and dress for our evening's event,  we were told to wait for housekeeping so they may attend to the room.  After an hour and 15 minutes of waiting for our room to cleaned, we still hadn't been told our room was ready; I personally went to our reserved room #322, and found no one was in there!  Why we were kept waiting was another frustrating fact.  I returned downstairs, asked for my key to enter my room.  Again, the unprofessionalism of the entire staff at the Los Angeles WorldPort Best Western is absolutely appalling.  No compensation can resolve this terrible experience.  We will be sharing this negative experience with our family, friends, business associates, and clientele; honestly, we hope that the franchise of Best Western...We arrived at the Los Angeles WorldPort Best Western, at 6:44 p.m., on Saturday, October 11, 2014. Upon entering our reserved, paid for room at 6:50 p.m., we found the room unattended to; the bed was used, trash in the garbage can, and used towels with questionable substances on the bathroom sink.  We captured photos of the scene and returned to the front desk to confront the attendant.  Unfortunately, the individual was inexperienced and did not fully comprehend the inconvenience we were subjected to.  What made the situation unbearable was after driving two hours from Bakersfield, California, intending to arrive at the lodging location for a prepared room with enough time to spare to shower and dress for our evening's event,  we were told to wait for housekeeping so they may attend to the room.  After an hour and 15 minutes of waiting for our room to cleaned, we still hadn't been told our room was ready; I personally went to our reserved room #322, and found no one was in there!  Why we were kept waiting was another frustrating fact.  I returned downstairs, asked for my key to enter my room.  Again, the unprofessionalism of the entire staff at the Los Angeles WorldPort Best Western is absolutely appalling.  No compensation can resolve this terrible experience.  We will be sharing this negative experience with our family, friends, business associates, and clientele; honestly, we hope that the franchise of Best Western will reap the repercussions of employing personnel that do not respect and maintain the organization's slogan of "Stay with people that care".MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived at the Los Angeles WorldPort Best Western, at 6:44 p.m., on Saturday, October 11, 2014. Upon entering our reserved, paid for room at 6:50 p.m., we found the room unattended to; the bed was used, trash in the garbage can, and used towels with questionable substances on the bathroom sink.  We captured photos of the scene and returned to the front desk to confront the attendant.  Unfortunately, the individual was inexperienced and did not fully comprehend the inconvenience we were subjected to.  What made the situation unbearable was after driving two hours from Bakersfield, California, intending to arrive at the lodging location for a prepared room with enough time to spare to shower and dress for our evening's event,  we were told to wait for housekeeping so they may attend to the room.  After an hour and 15 minutes of waiting for our room to cleaned, we still hadn't been told our room was ready; I personally went to our reserved room #322, and found no one was in there!  Why we were kept waiting was another frustrating fact.  I returned downstairs, asked for my key to enter my room.  Again, the unprofessionalism of the entire staff at the Los Angeles WorldPort Best Western is absolutely appalling.  No compensation can resolve this terrible experience.  We will be sharing this negative experience with our family, friends, business associates, and clientele; honestly, we hope that the franchise of Best Western...We arrived at the Los Angeles WorldPort Best Western, at 6:44 p.m., on Saturday, October 11, 2014. Upon entering our reserved, paid for room at 6:50 p.m., we found the room unattended to; the bed was used, trash in the garbage can, and used towels with questionable substances on the bathroom sink.  We captured photos of the scene and returned to the front desk to confront the attendant.  Unfortunately, the individual was inexperienced and did not fully comprehend the inconvenience we were subjected to.  What made the situation unbearable was after driving two hours from Bakersfield, California, intending to arrive at the lodging location for a prepared room with enough time to spare to shower and dress for our evening's event,  we were told to wait for housekeeping so they may attend to the room.  After an hour and 15 minutes of waiting for our room to cleaned, we still hadn't been told our room was ready; I personally went to our reserved room #322, and found no one was in there!  Why we were kept waiting was another frustrating fact.  I returned downstairs, asked for my key to enter my room.  Again, the unprofessionalism of the entire staff at the Los Angeles WorldPort Best Western is absolutely appalling.  No compensation can resolve this terrible experience.  We will be sharing this negative experience with our family, friends, business associates, and clientele; honestly, we hope that the franchise of Best Western will reap the repercussions of employing personnel that do not respect and maintain the organization's slogan of "Stay with people that care".More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r231990748-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>231990748</t>
+  </si>
+  <si>
+    <t>09/30/2014</t>
+  </si>
+  <si>
+    <t>I usually stay here when I visit home because it's close to the kids, and it's a good value overall. The staff is great &amp; there have never been any issues, other than the smoke. They still allow smoking on one of the floors, hopefully it will become a non smoking hotel permanently.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r221250555-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>221250555</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>Better than expected</t>
+  </si>
+  <si>
+    <t>After reading some negative reviews I was pleasantly surprised.  It is an older/basic hotel, but it appears renovations are currently being done (new counters in room - we noticed old ones outside ready for trash pick-up)   All in all, we would stay here again when in the area. Cons: Very thin walls - could hear TV in room across hall Bed hard and lumpy - was able to sleep ok Minor construction issues - hot/cold water reversed on bathroom sink, plug upside-down, new counter smaller than old (wall not yet repaired), etc. Pros: Staff nice and helpful - especially the hard-working lady that ran the breakfast room Great location near freeway - easy access to area attractions Right next door to Denny's for a quick biteMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>After reading some negative reviews I was pleasantly surprised.  It is an older/basic hotel, but it appears renovations are currently being done (new counters in room - we noticed old ones outside ready for trash pick-up)   All in all, we would stay here again when in the area. Cons: Very thin walls - could hear TV in room across hall Bed hard and lumpy - was able to sleep ok Minor construction issues - hot/cold water reversed on bathroom sink, plug upside-down, new counter smaller than old (wall not yet repaired), etc. Pros: Staff nice and helpful - especially the hard-working lady that ran the breakfast room Great location near freeway - easy access to area attractions Right next door to Denny's for a quick biteMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r219451201-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>219451201</t>
+  </si>
+  <si>
+    <t>08/04/2014</t>
+  </si>
+  <si>
+    <t>Best Western Chin Hotels will never dissapoint you</t>
+  </si>
+  <si>
+    <t>Since I tasted for the first time 2 years ago the Best Western Chain Hotels in Saint George UTAH, I enjoyed so much that I decided to take my chance and choose the same chain when I travel across the US, and the Best Western Los Angeles Worldport California, didnt disappoint me this time either. What I have got in terms of service and room quality was beyond I paid for the room and I am very happy. Also, I brought some friends with me and they were ver pleased too.The hotel is very well located, close to the downtown, and the Dennis restaurant that is just few steps make it really convenient....MoreShow less</t>
+  </si>
+  <si>
+    <t>Since I tasted for the first time 2 years ago the Best Western Chain Hotels in Saint George UTAH, I enjoyed so much that I decided to take my chance and choose the same chain when I travel across the US, and the Best Western Los Angeles Worldport California, didnt disappoint me this time either. What I have got in terms of service and room quality was beyond I paid for the room and I am very happy. Also, I brought some friends with me and they were ver pleased too.The hotel is very well located, close to the downtown, and the Dennis restaurant that is just few steps make it really convenient....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r219609364-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>219609364</t>
+  </si>
+  <si>
+    <t>Best Western Hotel Chain is my favorite Selection</t>
+  </si>
+  <si>
+    <t>Since I tasted for the first time 2 years ago the Best Western Chain in Saint George UTAH, I enjoyed so much that I decided to take my chance and choose the same chain when I travel across the US, and the Best Western Worldport California, didnt disappoint me this time either. What I have got in terms of service and room quality was beyond I paid for the room and I am very happy. Also, I brought some friends with me and they were ver pleased too.The hotel is very well located, close to the downtown, and the Dennis restaurant that is just few steps make it really convenient....MoreShow less</t>
+  </si>
+  <si>
+    <t>Since I tasted for the first time 2 years ago the Best Western Chain in Saint George UTAH, I enjoyed so much that I decided to take my chance and choose the same chain when I travel across the US, and the Best Western Worldport California, didnt disappoint me this time either. What I have got in terms of service and room quality was beyond I paid for the room and I am very happy. Also, I brought some friends with me and they were ver pleased too.The hotel is very well located, close to the downtown, and the Dennis restaurant that is just few steps make it really convenient....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r215828919-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>215828919</t>
+  </si>
+  <si>
+    <t>07/16/2014</t>
+  </si>
+  <si>
+    <t>Work Travel</t>
+  </si>
+  <si>
+    <t>The hotel is clean. Its in a busy commercial area. They do not have an onsite fitness center. The staff experience is inconsistent. The price was consistent with other hotels of equal status in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r214933510-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>214933510</t>
+  </si>
+  <si>
+    <t>07/11/2014</t>
+  </si>
+  <si>
+    <t>Great price, good service</t>
+  </si>
+  <si>
+    <t>Conveniently located.  The rooms were pretty clean and all staff were nice.  Breakfast included with stay, this was a definite plus, a lot of items to chose from.  Wi-Fi was slow, this was probably the only draw back.  Other than that, all was well.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r213566392-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>213566392</t>
+  </si>
+  <si>
+    <t>07/03/2014</t>
+  </si>
+  <si>
+    <t>Good for One Night Business Stay Over</t>
+  </si>
+  <si>
+    <t>For a one night stay over on a business trip, this hotel provides good accommodations.  Easy Off-Easy On to the 110 Fwy.  Adjacent to Denny's for a quick meal - morning, noon, night..  Bed was very comfortable; spacious room with coffee maker, refrigerator and quality television.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r209677366-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>209677366</t>
+  </si>
+  <si>
+    <t>06/09/2014</t>
+  </si>
+  <si>
+    <t>Great room</t>
+  </si>
+  <si>
+    <t>I was pleasantly  surprised on how nice the bed was. I think I slept better there than my own bed! The area was nice. The staff went beyond the call of duty in helping me get my things to my room. A nice room, overall a wonderful stay!</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r207207649-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>207207649</t>
+  </si>
+  <si>
+    <t>05/26/2014</t>
+  </si>
+  <si>
+    <t>Decent hotel with affordable price</t>
+  </si>
+  <si>
+    <t>Hotel is right next to 24 hours Denny's restaurant, decent accomodation but one staff member is rude and incompetent. Decent and clean rooms but there is no security guard. There is a pool and kind of noisy because of the neighbors and its right next to the 100 freeway.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r197799943-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>197799943</t>
+  </si>
+  <si>
+    <t>03/17/2014</t>
+  </si>
+  <si>
+    <t>Poor quality breakfast</t>
+  </si>
+  <si>
+    <t>Hotel is average at best, but the breakfast could be better.   They do not offer scrambled eggs and there were no bananas available.   This hotel should not be a 2 1/2 star status.   If is it s 2 star hotel, then I think the rating is appropriate.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r183828553-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>183828553</t>
+  </si>
+  <si>
+    <t>11/06/2013</t>
+  </si>
+  <si>
+    <t>Liked it</t>
+  </si>
+  <si>
+    <t>I had a good experriecne here. They had a pool and free breakfast. They also had wifi. The service there was great. Other than that it was a bargain hotel and we got a good price. I gave it 4 stars just because its not very fancey</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r178450346-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>178450346</t>
+  </si>
+  <si>
+    <t>09/24/2013</t>
+  </si>
+  <si>
+    <t>Could Have been Better</t>
+  </si>
+  <si>
+    <t>I chose this hotel because it was exactly midway between the two locations I needed to be traveling between. It is right next to I-110 and you can only turn right when you exit and you can only enter from one direction. This makes for a lot of U-Turns.Pros;The hotel staff was very considerate and friendly.I did get a non-smoking room and it was very clean.The room was on the opposite side from the freeway and the room was quiet.Very nice shower - shower head was high and large-water flow was good.The continental breakfast area was clean and presented well.They charged me less than the price I booked online. Reasonable price.Cons;The elevator was broken when I arrived on Monday and was not repaired until late Thursday.The ice machine on the second and third floor was broken so more stair climbing to get ice from  the front desk. Broken the entire week.The printer was broken and unable to print my boarding pass Thursday night. There was crumpled paper everywhere and the printer and PC had not been checked or serviced in quite a while.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>I chose this hotel because it was exactly midway between the two locations I needed to be traveling between. It is right next to I-110 and you can only turn right when you exit and you can only enter from one direction. This makes for a lot of U-Turns.Pros;The hotel staff was very considerate and friendly.I did get a non-smoking room and it was very clean.The room was on the opposite side from the freeway and the room was quiet.Very nice shower - shower head was high and large-water flow was good.The continental breakfast area was clean and presented well.They charged me less than the price I booked online. Reasonable price.Cons;The elevator was broken when I arrived on Monday and was not repaired until late Thursday.The ice machine on the second and third floor was broken so more stair climbing to get ice from  the front desk. Broken the entire week.The printer was broken and unable to print my boarding pass Thursday night. There was crumpled paper everywhere and the printer and PC had not been checked or serviced in quite a while.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r176956588-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>176956588</t>
+  </si>
+  <si>
+    <t>09/11/2013</t>
+  </si>
+  <si>
+    <t>uncomfortable beds</t>
+  </si>
+  <si>
+    <t>Horrible...could not enjoy a nice rest especially traveling for 3-4 hours for business. I had complained already and nothings been taken care of. This time the elevator was out of service and it was not an easy route to carry your luggage all the way to the top floor. The rooms are decent but with the price I'm paying per night is not worth it. The king size bed has a dent in the mattress where its probably really old and worn out. Made it really uneasy to have a good nights rest. I rather would pay for a motel 6 for the same quality of bed rest. It's ridiculous. Sheets where all over the hallway, trashy environment.MoreShow less</t>
+  </si>
+  <si>
+    <t>Horrible...could not enjoy a nice rest especially traveling for 3-4 hours for business. I had complained already and nothings been taken care of. This time the elevator was out of service and it was not an easy route to carry your luggage all the way to the top floor. The rooms are decent but with the price I'm paying per night is not worth it. The king size bed has a dent in the mattress where its probably really old and worn out. Made it really uneasy to have a good nights rest. I rather would pay for a motel 6 for the same quality of bed rest. It's ridiculous. Sheets where all over the hallway, trashy environment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r153829119-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>153829119</t>
+  </si>
+  <si>
+    <t>03/05/2013</t>
+  </si>
+  <si>
+    <t>Never, ever again!</t>
+  </si>
+  <si>
+    <t>The girl at the front desk was very nice, but that's about it.  The hallway reeked of mold and alcohol.  The rooms smelled a little bit better only because it did not smell like alcohol.  The room still reeked of mold.  All of the bed bug comments made my legs itchy, but I never actually saw any bed bugs.  The towel rack in the bathroom was covered in rust so much so that I would not take a shower.  I felt really uncomfortable; it wasn't clean enough for what I paid.  The carpets had burn marks.  I will not stay here ever again.  It was the absolute worst hotel I have stayed at since I can remember.  I was not a happy customer!  Thanks a lot Priceline; your rating of 8/10 was beyond generous - it was delusional!MoreShow less</t>
+  </si>
+  <si>
+    <t>The girl at the front desk was very nice, but that's about it.  The hallway reeked of mold and alcohol.  The rooms smelled a little bit better only because it did not smell like alcohol.  The room still reeked of mold.  All of the bed bug comments made my legs itchy, but I never actually saw any bed bugs.  The towel rack in the bathroom was covered in rust so much so that I would not take a shower.  I felt really uncomfortable; it wasn't clean enough for what I paid.  The carpets had burn marks.  I will not stay here ever again.  It was the absolute worst hotel I have stayed at since I can remember.  I was not a happy customer!  Thanks a lot Priceline; your rating of 8/10 was beyond generous - it was delusional!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r136227657-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>136227657</t>
+  </si>
+  <si>
+    <t>08/04/2012</t>
+  </si>
+  <si>
+    <t>Bed bug alert!!!</t>
+  </si>
+  <si>
+    <t>We found a bed bug in my daughters bed and brought it to the attention of the front desk. The women at the front desk replied eww what do you want me to do with it? Unbelievable. Dirty and very noisy. Would never stay here again. Would not recommend to my worst enemy.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r134276262-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>134276262</t>
+  </si>
+  <si>
+    <t>07/13/2012</t>
+  </si>
+  <si>
+    <t>Not good on service</t>
+  </si>
+  <si>
+    <t>I will no longer trust AAA rate.  I booked two rooms with double queen beds.  The night I checked in (around 8 PM), one room did not have any towel,  under the chair next to the TV there was a q-tip.  It must have been there for awhile.  I suspect they didn't clean the room prior to us checked in.  I called the front desk to ask for towels and were told I need to come down to get it since there was no one else available to take them up.  The next day, when we came back in the evening, the beds were made, the trash clean out, towels were provided.  However, the q-tip was still there under the chair.  I don't think the service lady vacuum the room at all.  On the third day, when we came back, nothing was done.  Beds were unmade, trash in the bed room and the front room were still there ( and the q-tip). When I came down to the front desk and asked why my room weren't being clean, I didn't get even an apologize from the front desk.  The front desk lady only asked what room and asked me if I want them clean tomorrow. Very rude and inappropriate behavior for the service industry.  I am not even sure if AAA was doing a good job at rating this hotel, but to me they do not deserve a three star...I will no longer trust AAA rate.  I booked two rooms with double queen beds.  The night I checked in (around 8 PM), one room did not have any towel,  under the chair next to the TV there was a q-tip.  It must have been there for awhile.  I suspect they didn't clean the room prior to us checked in.  I called the front desk to ask for towels and were told I need to come down to get it since there was no one else available to take them up.  The next day, when we came back in the evening, the beds were made, the trash clean out, towels were provided.  However, the q-tip was still there under the chair.  I don't think the service lady vacuum the room at all.  On the third day, when we came back, nothing was done.  Beds were unmade, trash in the bed room and the front room were still there ( and the q-tip). When I came down to the front desk and asked why my room weren't being clean, I didn't get even an apologize from the front desk.  The front desk lady only asked what room and asked me if I want them clean tomorrow. Very rude and inappropriate behavior for the service industry.  I am not even sure if AAA was doing a good job at rating this hotel, but to me they do not deserve a three star for the staff they have there.MoreShow less</t>
+  </si>
+  <si>
+    <t>I will no longer trust AAA rate.  I booked two rooms with double queen beds.  The night I checked in (around 8 PM), one room did not have any towel,  under the chair next to the TV there was a q-tip.  It must have been there for awhile.  I suspect they didn't clean the room prior to us checked in.  I called the front desk to ask for towels and were told I need to come down to get it since there was no one else available to take them up.  The next day, when we came back in the evening, the beds were made, the trash clean out, towels were provided.  However, the q-tip was still there under the chair.  I don't think the service lady vacuum the room at all.  On the third day, when we came back, nothing was done.  Beds were unmade, trash in the bed room and the front room were still there ( and the q-tip). When I came down to the front desk and asked why my room weren't being clean, I didn't get even an apologize from the front desk.  The front desk lady only asked what room and asked me if I want them clean tomorrow. Very rude and inappropriate behavior for the service industry.  I am not even sure if AAA was doing a good job at rating this hotel, but to me they do not deserve a three star...I will no longer trust AAA rate.  I booked two rooms with double queen beds.  The night I checked in (around 8 PM), one room did not have any towel,  under the chair next to the TV there was a q-tip.  It must have been there for awhile.  I suspect they didn't clean the room prior to us checked in.  I called the front desk to ask for towels and were told I need to come down to get it since there was no one else available to take them up.  The next day, when we came back in the evening, the beds were made, the trash clean out, towels were provided.  However, the q-tip was still there under the chair.  I don't think the service lady vacuum the room at all.  On the third day, when we came back, nothing was done.  Beds were unmade, trash in the bed room and the front room were still there ( and the q-tip). When I came down to the front desk and asked why my room weren't being clean, I didn't get even an apologize from the front desk.  The front desk lady only asked what room and asked me if I want them clean tomorrow. Very rude and inappropriate behavior for the service industry.  I am not even sure if AAA was doing a good job at rating this hotel, but to me they do not deserve a three star for the staff they have there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r129680284-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>129680284</t>
+  </si>
+  <si>
+    <t>05/09/2012</t>
+  </si>
+  <si>
+    <t>FEET FROM THE FREEWAY~ CLEAN, FAIR BREAKFAST, GOOD BEDS, ROTTEN PILLOWS!</t>
+  </si>
+  <si>
+    <t>Just spent one night here for a convention. It is right next to the freeway on ramp on Pacific Coast Highway. You need to pull a nasty fast, U-turn to get in coming from Long Beach. Lots of free parking, fair A/C, just loud enough to drown out the traffic noise. Nice size pool &amp; spa which you enter and exit from the end of building fire stairs right into the pool area. The breakfast is nothing to write home about, but there is a Denny's right next door &amp; I would go there before eating at the BW again. Plus's are much better quality breakfast. Again the same rotten corporate, hard as rocks pillows. Great for propping up in bed to watch TV, horrible for your neck to sleep. If you are a Chiropractor, buy plenty of business cards and leave them at the front check out for customers in need of a neck re-alignment. If there was one huge dig on BW's chain it is these miserable excuse for pillows. The king room I had was not one I would ever, ever want again. The sink, cube of a refrigerator, coffee pot, microwave and mirror were right inside the door, not in the bathroom. I slammed the door into my lady who was at the sink when I came back from the lobby. Definitely not something you want to happen on a trip. The bed was OK, not...Just spent one night here for a convention. It is right next to the freeway on ramp on Pacific Coast Highway. You need to pull a nasty fast, U-turn to get in coming from Long Beach. Lots of free parking, fair A/C, just loud enough to drown out the traffic noise. Nice size pool &amp; spa which you enter and exit from the end of building fire stairs right into the pool area. The breakfast is nothing to write home about, but there is a Denny's right next door &amp; I would go there before eating at the BW again. Plus's are much better quality breakfast. Again the same rotten corporate, hard as rocks pillows. Great for propping up in bed to watch TV, horrible for your neck to sleep. If you are a Chiropractor, buy plenty of business cards and leave them at the front check out for customers in need of a neck re-alignment. If there was one huge dig on BW's chain it is these miserable excuse for pillows. The king room I had was not one I would ever, ever want again. The sink, cube of a refrigerator, coffee pot, microwave and mirror were right inside the door, not in the bathroom. I slammed the door into my lady who was at the sink when I came back from the lobby. Definitely not something you want to happen on a trip. The bed was OK, not great, or the same Simmon's quality I had at the BW Long Beach Convention Center location, but it was 50% less in price. Would I stay here again? No! I would go to the Comfort Inn &amp; Suites where I have stayed in Long Beach.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Just spent one night here for a convention. It is right next to the freeway on ramp on Pacific Coast Highway. You need to pull a nasty fast, U-turn to get in coming from Long Beach. Lots of free parking, fair A/C, just loud enough to drown out the traffic noise. Nice size pool &amp; spa which you enter and exit from the end of building fire stairs right into the pool area. The breakfast is nothing to write home about, but there is a Denny's right next door &amp; I would go there before eating at the BW again. Plus's are much better quality breakfast. Again the same rotten corporate, hard as rocks pillows. Great for propping up in bed to watch TV, horrible for your neck to sleep. If you are a Chiropractor, buy plenty of business cards and leave them at the front check out for customers in need of a neck re-alignment. If there was one huge dig on BW's chain it is these miserable excuse for pillows. The king room I had was not one I would ever, ever want again. The sink, cube of a refrigerator, coffee pot, microwave and mirror were right inside the door, not in the bathroom. I slammed the door into my lady who was at the sink when I came back from the lobby. Definitely not something you want to happen on a trip. The bed was OK, not...Just spent one night here for a convention. It is right next to the freeway on ramp on Pacific Coast Highway. You need to pull a nasty fast, U-turn to get in coming from Long Beach. Lots of free parking, fair A/C, just loud enough to drown out the traffic noise. Nice size pool &amp; spa which you enter and exit from the end of building fire stairs right into the pool area. The breakfast is nothing to write home about, but there is a Denny's right next door &amp; I would go there before eating at the BW again. Plus's are much better quality breakfast. Again the same rotten corporate, hard as rocks pillows. Great for propping up in bed to watch TV, horrible for your neck to sleep. If you are a Chiropractor, buy plenty of business cards and leave them at the front check out for customers in need of a neck re-alignment. If there was one huge dig on BW's chain it is these miserable excuse for pillows. The king room I had was not one I would ever, ever want again. The sink, cube of a refrigerator, coffee pot, microwave and mirror were right inside the door, not in the bathroom. I slammed the door into my lady who was at the sink when I came back from the lobby. Definitely not something you want to happen on a trip. The bed was OK, not great, or the same Simmon's quality I had at the BW Long Beach Convention Center location, but it was 50% less in price. Would I stay here again? No! I would go to the Comfort Inn &amp; Suites where I have stayed in Long Beach.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r123943261-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>123943261</t>
+  </si>
+  <si>
+    <t>01/31/2012</t>
+  </si>
+  <si>
+    <t>Good value- I would stay here again.</t>
+  </si>
+  <si>
+    <t>I stayed two nights while attending an event at the Long Beach Convention Center. Everything near the convention center was sold out or very expensive. I have a car and this hotel is conviently located next to the 110 freeway entrance and exit. The drive over the bridge to  Long Beach was scenic and easy. My room faced the freeway; surprisingly the noise did not bother me and I'm usually noise sensitive. The staff was friendly. The rooms were clean the bedding and furniture looked fairly new. I used the iron, refridgerator, hairdryer, coffee maker,tv-what more do you need? They also have a small pool and serve breakfast. The price was unbeatable with my triple A discount. If I had to complain about anything I would remember to bring my own pillow next time. The hotel pillows were hard foam and I looked forward to getting home to my more comfortable bed. Overall I was very happy with my experience and would stay here again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed two nights while attending an event at the Long Beach Convention Center. Everything near the convention center was sold out or very expensive. I have a car and this hotel is conviently located next to the 110 freeway entrance and exit. The drive over the bridge to  Long Beach was scenic and easy. My room faced the freeway; surprisingly the noise did not bother me and I'm usually noise sensitive. The staff was friendly. The rooms were clean the bedding and furniture looked fairly new. I used the iron, refridgerator, hairdryer, coffee maker,tv-what more do you need? They also have a small pool and serve breakfast. The price was unbeatable with my triple A discount. If I had to complain about anything I would remember to bring my own pillow next time. The hotel pillows were hard foam and I looked forward to getting home to my more comfortable bed. Overall I was very happy with my experience and would stay here again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r120744438-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>120744438</t>
+  </si>
+  <si>
+    <t>11/18/2011</t>
+  </si>
+  <si>
+    <t>nice but noisy</t>
+  </si>
+  <si>
+    <t>one of the better Best Westerns I've stayed in but even with the recessed doors it was noisy due to automobile and airplane traffic</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r102985725-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>102985725</t>
+  </si>
+  <si>
+    <t>04/05/2011</t>
+  </si>
+  <si>
+    <t>This is no more than truck stop quality</t>
+  </si>
+  <si>
+    <t>Arrived approxiamately 9PM.  Front desk unattended.  Called out several times; then attendent eventually emerged from side room.  Unpleasant fellow - spoke limited English.  Had made guaranteed reservation through Best Western, but checkin was tedious.  Room quality basic, no frills.  Breakfast is not worth a stop.  Front desk clerk in AM was totally disinterested; she declined to assist with printing my boarding pass [the guest computer in lobby had no working printer].  Neighborhood is definitely not suitable for walking.  Loca.tion adjacent to freeway complicated by egress difficulties during peak traffic.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r77987924-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>77987924</t>
+  </si>
+  <si>
+    <t>09/02/2010</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>The stay was great we chose this hotel because it was a short drive from the airport 20 minutes drive, there is a Dennys right next door.Still i dont think you can go wrong with a Best Western.A fantastic first night hotel which starts your holiday the way you want it to.</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r47372238-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>47372238</t>
+  </si>
+  <si>
+    <t>10/20/2009</t>
+  </si>
+  <si>
+    <t>Neat &amp; Clean</t>
+  </si>
+  <si>
+    <t>The hotel was neat and clean.  The hot tub was nice.  My only complaint was there was only 1 restaurant within walking distance - Dennys right next door.  Breakfast was simple but well stocked.</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r8364637-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>8364637</t>
+  </si>
+  <si>
+    <t>08/05/2007</t>
+  </si>
+  <si>
+    <t>Better than Expected</t>
+  </si>
+  <si>
+    <t>There were very few reviews of this property that I could find, and those that I could find were equally weighted from bad to good.  I was initially put off, but because the rates were good ($70/night on a government discount plan) I took the chance and booked my two-night stay.
+My first concern was with bed bugs.  I recently heard that they have been making a comeback in US hotels, and there was mention of them in another review of this hotel on this website.  Good news for me, there were no bed bugs.
+I booked a non-smoking room with a king sized bed.  There was always an odor that I could smell each time I entered the room but would disappear as I got used to it.  That smell makes me suspect it was previously a smoking room (or the previous guest had smoked heavily in the room) and the staff tried to get out the smell with those scented fabric sprays.  However, the bedding (not including the top comforter) smelled and felt clean.  No complaints there.
+Apart from that initial whiff, the room I got was as described.  All major appliances were in satisfactory working order.  I can't comment on the cofee maker or iron; I never used them.  The room was missing the remote control for the television, but as luck would have it, I noticed the adjacent room was being cleaned when I first got...There were very few reviews of this property that I could find, and those that I could find were equally weighted from bad to good.  I was initially put off, but because the rates were good ($70/night on a government discount plan) I took the chance and booked my two-night stay.My first concern was with bed bugs.  I recently heard that they have been making a comeback in US hotels, and there was mention of them in another review of this hotel on this website.  Good news for me, there were no bed bugs.I booked a non-smoking room with a king sized bed.  There was always an odor that I could smell each time I entered the room but would disappear as I got used to it.  That smell makes me suspect it was previously a smoking room (or the previous guest had smoked heavily in the room) and the staff tried to get out the smell with those scented fabric sprays.  However, the bedding (not including the top comforter) smelled and felt clean.  No complaints there.Apart from that initial whiff, the room I got was as described.  All major appliances were in satisfactory working order.  I can't comment on the cofee maker or iron; I never used them.  The room was missing the remote control for the television, but as luck would have it, I noticed the adjacent room was being cleaned when I first got to the room.  I just told the chambermaid the problem and voila, she produced a remote that worked!The bathroom was clean and smelled clean.  The towels weren't the big, fluffy ones, but instead were the thin seemingly threadbare ones, which are to be expected in this type of establishment.  While the water pressure could have been better, I never felt I was getting a substandard bath.  (You might think that's an odd statement, but I've taken showers with such low water pressure and such soft water that it's taken me three times as long to wash off, and still I felt soapy).The view out the window was of another building and most prominently their dumpsters overflowing with trash.  I kept the heavy drapes closed.  The room was fairly well-isolated from outside noises.I was here for literally two-nights between 10:30 PM to 7 AM, pretty much to bathe and sleep, so I can't comment on the other property amenities nor the continental breakfast.  Parking seemed ample and not a problem.  All in all, a good value for the money if all you need is a place to rest at the end of the day.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2007</t>
+  </si>
+  <si>
+    <t>There were very few reviews of this property that I could find, and those that I could find were equally weighted from bad to good.  I was initially put off, but because the rates were good ($70/night on a government discount plan) I took the chance and booked my two-night stay.
+My first concern was with bed bugs.  I recently heard that they have been making a comeback in US hotels, and there was mention of them in another review of this hotel on this website.  Good news for me, there were no bed bugs.
+I booked a non-smoking room with a king sized bed.  There was always an odor that I could smell each time I entered the room but would disappear as I got used to it.  That smell makes me suspect it was previously a smoking room (or the previous guest had smoked heavily in the room) and the staff tried to get out the smell with those scented fabric sprays.  However, the bedding (not including the top comforter) smelled and felt clean.  No complaints there.
+Apart from that initial whiff, the room I got was as described.  All major appliances were in satisfactory working order.  I can't comment on the cofee maker or iron; I never used them.  The room was missing the remote control for the television, but as luck would have it, I noticed the adjacent room was being cleaned when I first got...There were very few reviews of this property that I could find, and those that I could find were equally weighted from bad to good.  I was initially put off, but because the rates were good ($70/night on a government discount plan) I took the chance and booked my two-night stay.My first concern was with bed bugs.  I recently heard that they have been making a comeback in US hotels, and there was mention of them in another review of this hotel on this website.  Good news for me, there were no bed bugs.I booked a non-smoking room with a king sized bed.  There was always an odor that I could smell each time I entered the room but would disappear as I got used to it.  That smell makes me suspect it was previously a smoking room (or the previous guest had smoked heavily in the room) and the staff tried to get out the smell with those scented fabric sprays.  However, the bedding (not including the top comforter) smelled and felt clean.  No complaints there.Apart from that initial whiff, the room I got was as described.  All major appliances were in satisfactory working order.  I can't comment on the cofee maker or iron; I never used them.  The room was missing the remote control for the television, but as luck would have it, I noticed the adjacent room was being cleaned when I first got to the room.  I just told the chambermaid the problem and voila, she produced a remote that worked!The bathroom was clean and smelled clean.  The towels weren't the big, fluffy ones, but instead were the thin seemingly threadbare ones, which are to be expected in this type of establishment.  While the water pressure could have been better, I never felt I was getting a substandard bath.  (You might think that's an odd statement, but I've taken showers with such low water pressure and such soft water that it's taken me three times as long to wash off, and still I felt soapy).The view out the window was of another building and most prominently their dumpsters overflowing with trash.  I kept the heavy drapes closed.  The room was fairly well-isolated from outside noises.I was here for literally two-nights between 10:30 PM to 7 AM, pretty much to bathe and sleep, so I can't comment on the other property amenities nor the continental breakfast.  Parking seemed ample and not a problem.  All in all, a good value for the money if all you need is a place to rest at the end of the day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r4724830-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>4724830</t>
+  </si>
+  <si>
+    <t>03/21/2006</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>This hotel is quiet, has good parking, pool, location and nice accomodations.  I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>February 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r4579400-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>4579400</t>
+  </si>
+  <si>
+    <t>03/02/2006</t>
+  </si>
+  <si>
+    <t>Stay Away!</t>
+  </si>
+  <si>
+    <t>After staying in this hotel for one night, I woke up to find my bed crawling with bed bugs and I got at least 200 bites that itched for three weeks! I told the manager while I was checking out and he didn't care at all. I made a complaint to Best Western and the hotel would not even contact them to address the problem....and the elevator doesn't work well, the people at the front desk are sketchy, my TV didn't work...But the place is truly infested with bed bugs! They are large and orange.Stay Away!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r4335228-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>4335228</t>
+  </si>
+  <si>
+    <t>01/09/2006</t>
+  </si>
+  <si>
+    <t>I Won't Stay There Again . . .</t>
+  </si>
+  <si>
+    <t>The Best Western World Port is somewhere between a dive and a cheap hotel.  It would appear that the hotel has been purchased fairly recently and the new owners have attempted an inexpensive upgrade.  And it's also quite clear that the current management is trying to get by with a least-cost maintenance approach.
+The first room they gave us didn't have a working heater; the walls had spots where the wallpaper had been torn off in horizontal long strips; and their free wireless internet signal was not strong enough unless we went out into the hall outside the room.
+The staff willingly gave us a second room, but the second room had a weak wireless internet signal (unless one used a laptop near the front door); had a shower head that didn't provide much water pressure (it might have been clogged); and had a water delivery system that either burned your skin or froze you with variable temperature water.  Also, the second room faced the Harbor (110) Freeway and so it was noisy at night.
+The elevator behaved strangely.  The door would open or close randomly.  Many of the lights on the buttons didn't work; nor did the elevator tell you what floor you were on.  It appeared that it simply wasn't being properly maintained.
+The electronic door locks were different from any I had ever seen before, and it took awhile to figure out just how to get the...The Best Western World Port is somewhere between a dive and a cheap hotel.  It would appear that the hotel has been purchased fairly recently and the new owners have attempted an inexpensive upgrade.  And it's also quite clear that the current management is trying to get by with a least-cost maintenance approach.The first room they gave us didn't have a working heater; the walls had spots where the wallpaper had been torn off in horizontal long strips; and their free wireless internet signal was not strong enough unless we went out into the hall outside the room.The staff willingly gave us a second room, but the second room had a weak wireless internet signal (unless one used a laptop near the front door); had a shower head that didn't provide much water pressure (it might have been clogged); and had a water delivery system that either burned your skin or froze you with variable temperature water.  Also, the second room faced the Harbor (110) Freeway and so it was noisy at night.The elevator behaved strangely.  The door would open or close randomly.  Many of the lights on the buttons didn't work; nor did the elevator tell you what floor you were on.  It appeared that it simply wasn't being properly maintained.The electronic door locks were different from any I had ever seen before, and it took awhile to figure out just how to get the door open.The continental breakfast isn't much.  Coffee was the only thing we consumed.  We went to the Denny's next door one morning and sought out another restaurant for breakfast the next day.I picked the hotel because of a good price and because of the advertised free high speed wireless internet.  I wish now that I had picked a different place in the LA area.  There are plenty of other alternatives at equivalent prices.  Stay at those places and not the Best Western World Port.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Best Western World Port is somewhere between a dive and a cheap hotel.  It would appear that the hotel has been purchased fairly recently and the new owners have attempted an inexpensive upgrade.  And it's also quite clear that the current management is trying to get by with a least-cost maintenance approach.
+The first room they gave us didn't have a working heater; the walls had spots where the wallpaper had been torn off in horizontal long strips; and their free wireless internet signal was not strong enough unless we went out into the hall outside the room.
+The staff willingly gave us a second room, but the second room had a weak wireless internet signal (unless one used a laptop near the front door); had a shower head that didn't provide much water pressure (it might have been clogged); and had a water delivery system that either burned your skin or froze you with variable temperature water.  Also, the second room faced the Harbor (110) Freeway and so it was noisy at night.
+The elevator behaved strangely.  The door would open or close randomly.  Many of the lights on the buttons didn't work; nor did the elevator tell you what floor you were on.  It appeared that it simply wasn't being properly maintained.
+The electronic door locks were different from any I had ever seen before, and it took awhile to figure out just how to get the...The Best Western World Port is somewhere between a dive and a cheap hotel.  It would appear that the hotel has been purchased fairly recently and the new owners have attempted an inexpensive upgrade.  And it's also quite clear that the current management is trying to get by with a least-cost maintenance approach.The first room they gave us didn't have a working heater; the walls had spots where the wallpaper had been torn off in horizontal long strips; and their free wireless internet signal was not strong enough unless we went out into the hall outside the room.The staff willingly gave us a second room, but the second room had a weak wireless internet signal (unless one used a laptop near the front door); had a shower head that didn't provide much water pressure (it might have been clogged); and had a water delivery system that either burned your skin or froze you with variable temperature water.  Also, the second room faced the Harbor (110) Freeway and so it was noisy at night.The elevator behaved strangely.  The door would open or close randomly.  Many of the lights on the buttons didn't work; nor did the elevator tell you what floor you were on.  It appeared that it simply wasn't being properly maintained.The electronic door locks were different from any I had ever seen before, and it took awhile to figure out just how to get the door open.The continental breakfast isn't much.  Coffee was the only thing we consumed.  We went to the Denny's next door one morning and sought out another restaurant for breakfast the next day.I picked the hotel because of a good price and because of the advertised free high speed wireless internet.  I wish now that I had picked a different place in the LA area.  There are plenty of other alternatives at equivalent prices.  Stay at those places and not the Best Western World Port.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r4051069-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>4051069</t>
+  </si>
+  <si>
+    <t>10/24/2005</t>
+  </si>
+  <si>
+    <t>Clean, Good Location for Cruise Port</t>
+  </si>
+  <si>
+    <t>Nothing fancy but this was a clean hotel with good sized rooms - we had the room with 2 king beds - great location if you are taking a cruise - only about 5-10 minutes down the 110 freeway to the port</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r3194888-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>3194888</t>
+  </si>
+  <si>
+    <t>02/15/2005</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 1 night before a cruise.  Got a great rate thru Travelocity, $60+tax.  The hotel was quite convenient, close enough to the cruise port, and with free parking and a Denny's right beside.  It's an older property, decor slightly dated, but very clean and well maintained.  The room was huge, with 2 king-sized beds and a small fridge.  Free continental breakfast was very basic, toast and doughnuts, but just enough to tide us over.  Not the best neighborhood, but definitely not the worst.  Would stay here again.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2294,6063 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>84</v>
+      </c>
+      <c r="O10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>113</v>
+      </c>
+      <c r="O13" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>113</v>
+      </c>
+      <c r="O14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" t="s">
+        <v>121</v>
+      </c>
+      <c r="K15" t="s">
+        <v>126</v>
+      </c>
+      <c r="L15" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>113</v>
+      </c>
+      <c r="O15" t="s">
+        <v>90</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16" t="s">
+        <v>133</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>134</v>
+      </c>
+      <c r="O16" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>136</v>
+      </c>
+      <c r="J17" t="s">
+        <v>137</v>
+      </c>
+      <c r="K17" t="s">
+        <v>138</v>
+      </c>
+      <c r="L17" t="s">
+        <v>139</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" t="s">
+        <v>142</v>
+      </c>
+      <c r="K18" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" t="s">
+        <v>144</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O18" t="s">
+        <v>90</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" t="s">
+        <v>147</v>
+      </c>
+      <c r="K19" t="s">
+        <v>148</v>
+      </c>
+      <c r="L19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>152</v>
+      </c>
+      <c r="J20" t="s">
+        <v>153</v>
+      </c>
+      <c r="K20" t="s">
+        <v>154</v>
+      </c>
+      <c r="L20" t="s">
+        <v>155</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>156</v>
+      </c>
+      <c r="O20" t="s">
+        <v>90</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>158</v>
+      </c>
+      <c r="J21" t="s">
+        <v>159</v>
+      </c>
+      <c r="K21" t="s">
+        <v>160</v>
+      </c>
+      <c r="L21" t="s">
+        <v>161</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>156</v>
+      </c>
+      <c r="O21" t="s">
+        <v>67</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>162</v>
+      </c>
+      <c r="X21" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>165</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>166</v>
+      </c>
+      <c r="J22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K22" t="s">
+        <v>168</v>
+      </c>
+      <c r="L22" t="s">
+        <v>169</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>156</v>
+      </c>
+      <c r="O22" t="s">
+        <v>90</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>171</v>
+      </c>
+      <c r="J23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K23" t="s">
+        <v>173</v>
+      </c>
+      <c r="L23" t="s">
+        <v>174</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>156</v>
+      </c>
+      <c r="O23" t="s">
+        <v>90</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>176</v>
+      </c>
+      <c r="J24" t="s">
+        <v>177</v>
+      </c>
+      <c r="K24" t="s">
+        <v>178</v>
+      </c>
+      <c r="L24" t="s">
+        <v>179</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>156</v>
+      </c>
+      <c r="O24" t="s">
+        <v>90</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>180</v>
+      </c>
+      <c r="X24" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>184</v>
+      </c>
+      <c r="J25" t="s">
+        <v>185</v>
+      </c>
+      <c r="K25" t="s">
+        <v>186</v>
+      </c>
+      <c r="L25" t="s">
+        <v>187</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>188</v>
+      </c>
+      <c r="O25" t="s">
+        <v>90</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>190</v>
+      </c>
+      <c r="J26" t="s">
+        <v>191</v>
+      </c>
+      <c r="K26" t="s">
+        <v>192</v>
+      </c>
+      <c r="L26" t="s">
+        <v>193</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>194</v>
+      </c>
+      <c r="O26" t="s">
+        <v>90</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>195</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>196</v>
+      </c>
+      <c r="J27" t="s">
+        <v>197</v>
+      </c>
+      <c r="K27" t="s">
+        <v>198</v>
+      </c>
+      <c r="L27" t="s">
+        <v>199</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>201</v>
+      </c>
+      <c r="J28" t="s">
+        <v>202</v>
+      </c>
+      <c r="K28" t="s">
+        <v>203</v>
+      </c>
+      <c r="L28" t="s">
+        <v>204</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>205</v>
+      </c>
+      <c r="O28" t="s">
+        <v>90</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>206</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>207</v>
+      </c>
+      <c r="J29" t="s">
+        <v>208</v>
+      </c>
+      <c r="K29" t="s">
+        <v>209</v>
+      </c>
+      <c r="L29" t="s">
+        <v>210</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>211</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>212</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>213</v>
+      </c>
+      <c r="J30" t="s">
+        <v>214</v>
+      </c>
+      <c r="K30" t="s">
+        <v>215</v>
+      </c>
+      <c r="L30" t="s">
+        <v>216</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>211</v>
+      </c>
+      <c r="O30" t="s">
+        <v>90</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>217</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>218</v>
+      </c>
+      <c r="J31" t="s">
+        <v>219</v>
+      </c>
+      <c r="K31" t="s">
+        <v>220</v>
+      </c>
+      <c r="L31" t="s">
+        <v>221</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>211</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>222</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>223</v>
+      </c>
+      <c r="J32" t="s">
+        <v>224</v>
+      </c>
+      <c r="K32" t="s">
+        <v>225</v>
+      </c>
+      <c r="L32" t="s">
+        <v>226</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>227</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>228</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>229</v>
+      </c>
+      <c r="J33" t="s">
+        <v>230</v>
+      </c>
+      <c r="K33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>227</v>
+      </c>
+      <c r="O33" t="s">
+        <v>67</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>233</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>234</v>
+      </c>
+      <c r="J34" t="s">
+        <v>235</v>
+      </c>
+      <c r="K34" t="s">
+        <v>236</v>
+      </c>
+      <c r="L34" t="s">
+        <v>237</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>238</v>
+      </c>
+      <c r="O34" t="s">
+        <v>90</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>240</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>241</v>
+      </c>
+      <c r="J35" t="s">
+        <v>242</v>
+      </c>
+      <c r="K35" t="s">
+        <v>243</v>
+      </c>
+      <c r="L35" t="s">
+        <v>244</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>245</v>
+      </c>
+      <c r="O35" t="s">
+        <v>90</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>246</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>247</v>
+      </c>
+      <c r="J36" t="s">
+        <v>248</v>
+      </c>
+      <c r="K36" t="s">
+        <v>249</v>
+      </c>
+      <c r="L36" t="s">
+        <v>250</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>251</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>252</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>253</v>
+      </c>
+      <c r="J37" t="s">
+        <v>254</v>
+      </c>
+      <c r="K37" t="s">
+        <v>255</v>
+      </c>
+      <c r="L37" t="s">
+        <v>256</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>258</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>259</v>
+      </c>
+      <c r="J38" t="s">
+        <v>260</v>
+      </c>
+      <c r="K38" t="s">
+        <v>261</v>
+      </c>
+      <c r="L38" t="s">
+        <v>262</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>263</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>264</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>265</v>
+      </c>
+      <c r="J39" t="s">
+        <v>266</v>
+      </c>
+      <c r="K39" t="s">
+        <v>267</v>
+      </c>
+      <c r="L39" t="s">
+        <v>268</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>269</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>270</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>271</v>
+      </c>
+      <c r="J40" t="s">
+        <v>272</v>
+      </c>
+      <c r="K40" t="s">
+        <v>273</v>
+      </c>
+      <c r="L40" t="s">
+        <v>274</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>269</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>275</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>276</v>
+      </c>
+      <c r="J41" t="s">
+        <v>277</v>
+      </c>
+      <c r="K41" t="s">
+        <v>278</v>
+      </c>
+      <c r="L41" t="s">
+        <v>279</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>280</v>
+      </c>
+      <c r="O41" t="s">
+        <v>90</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>281</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>282</v>
+      </c>
+      <c r="J42" t="s">
+        <v>283</v>
+      </c>
+      <c r="K42" t="s">
+        <v>284</v>
+      </c>
+      <c r="L42" t="s">
+        <v>285</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>280</v>
+      </c>
+      <c r="O42" t="s">
+        <v>286</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>287</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>288</v>
+      </c>
+      <c r="J43" t="s">
+        <v>289</v>
+      </c>
+      <c r="K43" t="s">
+        <v>290</v>
+      </c>
+      <c r="L43" t="s">
+        <v>291</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>292</v>
+      </c>
+      <c r="O43" t="s">
+        <v>67</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>293</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>294</v>
+      </c>
+      <c r="J44" t="s">
+        <v>295</v>
+      </c>
+      <c r="K44" t="s">
+        <v>296</v>
+      </c>
+      <c r="L44" t="s">
+        <v>297</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>298</v>
+      </c>
+      <c r="O44" t="s">
+        <v>67</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>300</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>301</v>
+      </c>
+      <c r="J45" t="s">
+        <v>302</v>
+      </c>
+      <c r="K45" t="s">
+        <v>303</v>
+      </c>
+      <c r="L45" t="s">
+        <v>304</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>298</v>
+      </c>
+      <c r="O45" t="s">
+        <v>67</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>305</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>306</v>
+      </c>
+      <c r="J46" t="s">
+        <v>307</v>
+      </c>
+      <c r="K46" t="s">
+        <v>308</v>
+      </c>
+      <c r="L46" t="s">
+        <v>309</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>298</v>
+      </c>
+      <c r="O46" t="s">
+        <v>286</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>310</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>311</v>
+      </c>
+      <c r="J47" t="s">
+        <v>312</v>
+      </c>
+      <c r="K47" t="s">
+        <v>313</v>
+      </c>
+      <c r="L47" t="s">
+        <v>314</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>315</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>316</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>317</v>
+      </c>
+      <c r="J48" t="s">
+        <v>318</v>
+      </c>
+      <c r="K48" t="s">
+        <v>319</v>
+      </c>
+      <c r="L48" t="s">
+        <v>320</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>321</v>
+      </c>
+      <c r="O48" t="s">
+        <v>90</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>322</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>323</v>
+      </c>
+      <c r="J49" t="s">
+        <v>324</v>
+      </c>
+      <c r="K49" t="s">
+        <v>325</v>
+      </c>
+      <c r="L49" t="s">
+        <v>326</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>315</v>
+      </c>
+      <c r="O49" t="s">
+        <v>286</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>327</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>328</v>
+      </c>
+      <c r="J50" t="s">
+        <v>329</v>
+      </c>
+      <c r="K50" t="s">
+        <v>330</v>
+      </c>
+      <c r="L50" t="s">
+        <v>331</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>315</v>
+      </c>
+      <c r="O50" t="s">
+        <v>67</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>333</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>334</v>
+      </c>
+      <c r="J51" t="s">
+        <v>335</v>
+      </c>
+      <c r="K51" t="s">
+        <v>336</v>
+      </c>
+      <c r="L51" t="s">
+        <v>337</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>338</v>
+      </c>
+      <c r="O51" t="s">
+        <v>90</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>339</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>340</v>
+      </c>
+      <c r="J52" t="s">
+        <v>341</v>
+      </c>
+      <c r="K52" t="s">
+        <v>342</v>
+      </c>
+      <c r="L52" t="s">
+        <v>343</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>338</v>
+      </c>
+      <c r="O52" t="s">
+        <v>90</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>345</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>346</v>
+      </c>
+      <c r="J53" t="s">
+        <v>347</v>
+      </c>
+      <c r="K53" t="s">
+        <v>348</v>
+      </c>
+      <c r="L53" t="s">
+        <v>349</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>350</v>
+      </c>
+      <c r="O53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>351</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>352</v>
+      </c>
+      <c r="J54" t="s">
+        <v>353</v>
+      </c>
+      <c r="K54" t="s">
+        <v>354</v>
+      </c>
+      <c r="L54" t="s">
+        <v>355</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>350</v>
+      </c>
+      <c r="O54" t="s">
+        <v>67</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>356</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>357</v>
+      </c>
+      <c r="J55" t="s">
+        <v>358</v>
+      </c>
+      <c r="K55" t="s">
+        <v>359</v>
+      </c>
+      <c r="L55" t="s">
+        <v>360</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>361</v>
+      </c>
+      <c r="O55" t="s">
+        <v>90</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>362</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>363</v>
+      </c>
+      <c r="J56" t="s">
+        <v>364</v>
+      </c>
+      <c r="K56" t="s">
+        <v>365</v>
+      </c>
+      <c r="L56" t="s">
+        <v>366</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>361</v>
+      </c>
+      <c r="O56" t="s">
+        <v>90</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>367</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>368</v>
+      </c>
+      <c r="J57" t="s">
+        <v>369</v>
+      </c>
+      <c r="K57" t="s">
+        <v>370</v>
+      </c>
+      <c r="L57" t="s">
+        <v>371</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>372</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>373</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>374</v>
+      </c>
+      <c r="J58" t="s">
+        <v>375</v>
+      </c>
+      <c r="K58" t="s">
+        <v>376</v>
+      </c>
+      <c r="L58" t="s">
+        <v>377</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>372</v>
+      </c>
+      <c r="O58" t="s">
+        <v>67</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>378</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>379</v>
+      </c>
+      <c r="J59" t="s">
+        <v>380</v>
+      </c>
+      <c r="K59" t="s">
+        <v>381</v>
+      </c>
+      <c r="L59" t="s">
+        <v>382</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>383</v>
+      </c>
+      <c r="O59" t="s">
+        <v>60</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>384</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>385</v>
+      </c>
+      <c r="J60" t="s">
+        <v>386</v>
+      </c>
+      <c r="K60" t="s">
+        <v>387</v>
+      </c>
+      <c r="L60" t="s">
+        <v>388</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>383</v>
+      </c>
+      <c r="O60" t="s">
+        <v>67</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>389</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>390</v>
+      </c>
+      <c r="J61" t="s">
+        <v>391</v>
+      </c>
+      <c r="K61" t="s">
+        <v>392</v>
+      </c>
+      <c r="L61" t="s">
+        <v>393</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>394</v>
+      </c>
+      <c r="O61" t="s">
+        <v>67</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>395</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>396</v>
+      </c>
+      <c r="J62" t="s">
+        <v>397</v>
+      </c>
+      <c r="K62" t="s">
+        <v>398</v>
+      </c>
+      <c r="L62" t="s">
+        <v>399</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>400</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>401</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>402</v>
+      </c>
+      <c r="J63" t="s">
+        <v>403</v>
+      </c>
+      <c r="K63" t="s">
+        <v>404</v>
+      </c>
+      <c r="L63" t="s">
+        <v>405</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>406</v>
+      </c>
+      <c r="O63" t="s">
+        <v>90</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>408</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>409</v>
+      </c>
+      <c r="J64" t="s">
+        <v>410</v>
+      </c>
+      <c r="K64" t="s">
+        <v>411</v>
+      </c>
+      <c r="L64" t="s">
+        <v>412</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>406</v>
+      </c>
+      <c r="O64" t="s">
+        <v>90</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>413</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>414</v>
+      </c>
+      <c r="J65" t="s">
+        <v>415</v>
+      </c>
+      <c r="K65" t="s">
+        <v>36</v>
+      </c>
+      <c r="L65" t="s">
+        <v>416</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>417</v>
+      </c>
+      <c r="O65" t="s">
+        <v>90</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>418</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>419</v>
+      </c>
+      <c r="J66" t="s">
+        <v>415</v>
+      </c>
+      <c r="K66" t="s">
+        <v>420</v>
+      </c>
+      <c r="L66" t="s">
+        <v>421</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>417</v>
+      </c>
+      <c r="O66" t="s">
+        <v>67</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>423</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>424</v>
+      </c>
+      <c r="J67" t="s">
+        <v>425</v>
+      </c>
+      <c r="K67" t="s">
+        <v>57</v>
+      </c>
+      <c r="L67" t="s">
+        <v>426</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>427</v>
+      </c>
+      <c r="O67" t="s">
+        <v>286</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>428</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>429</v>
+      </c>
+      <c r="J68" t="s">
+        <v>430</v>
+      </c>
+      <c r="K68" t="s">
+        <v>431</v>
+      </c>
+      <c r="L68" t="s">
+        <v>432</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>433</v>
+      </c>
+      <c r="O68" t="s">
+        <v>67</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>435</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>436</v>
+      </c>
+      <c r="J69" t="s">
+        <v>437</v>
+      </c>
+      <c r="K69" t="s">
+        <v>438</v>
+      </c>
+      <c r="L69" t="s">
+        <v>439</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>433</v>
+      </c>
+      <c r="O69" t="s">
+        <v>90</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>441</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>442</v>
+      </c>
+      <c r="J70" t="s">
+        <v>437</v>
+      </c>
+      <c r="K70" t="s">
+        <v>443</v>
+      </c>
+      <c r="L70" t="s">
+        <v>444</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>433</v>
+      </c>
+      <c r="O70" t="s">
+        <v>60</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>446</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>447</v>
+      </c>
+      <c r="J71" t="s">
+        <v>448</v>
+      </c>
+      <c r="K71" t="s">
+        <v>449</v>
+      </c>
+      <c r="L71" t="s">
+        <v>450</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>394</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>451</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>452</v>
+      </c>
+      <c r="J72" t="s">
+        <v>453</v>
+      </c>
+      <c r="K72" t="s">
+        <v>454</v>
+      </c>
+      <c r="L72" t="s">
+        <v>455</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>394</v>
+      </c>
+      <c r="O72" t="s">
+        <v>90</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>456</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>457</v>
+      </c>
+      <c r="J73" t="s">
+        <v>458</v>
+      </c>
+      <c r="K73" t="s">
+        <v>459</v>
+      </c>
+      <c r="L73" t="s">
+        <v>460</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>394</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>461</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>462</v>
+      </c>
+      <c r="J74" t="s">
+        <v>463</v>
+      </c>
+      <c r="K74" t="s">
+        <v>464</v>
+      </c>
+      <c r="L74" t="s">
+        <v>465</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>466</v>
+      </c>
+      <c r="O74" t="s">
+        <v>90</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>467</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>468</v>
+      </c>
+      <c r="J75" t="s">
+        <v>469</v>
+      </c>
+      <c r="K75" t="s">
+        <v>470</v>
+      </c>
+      <c r="L75" t="s">
+        <v>471</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>472</v>
+      </c>
+      <c r="O75" t="s">
+        <v>60</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>473</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>474</v>
+      </c>
+      <c r="J76" t="s">
+        <v>475</v>
+      </c>
+      <c r="K76" t="s">
+        <v>476</v>
+      </c>
+      <c r="L76" t="s">
+        <v>477</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>478</v>
+      </c>
+      <c r="O76" t="s">
+        <v>90</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>479</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>480</v>
+      </c>
+      <c r="J77" t="s">
+        <v>481</v>
+      </c>
+      <c r="K77" t="s">
+        <v>482</v>
+      </c>
+      <c r="L77" t="s">
+        <v>483</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>484</v>
+      </c>
+      <c r="O77" t="s">
+        <v>90</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>485</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>486</v>
+      </c>
+      <c r="J78" t="s">
+        <v>487</v>
+      </c>
+      <c r="K78" t="s">
+        <v>488</v>
+      </c>
+      <c r="L78" t="s">
+        <v>489</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>490</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>492</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>493</v>
+      </c>
+      <c r="J79" t="s">
+        <v>494</v>
+      </c>
+      <c r="K79" t="s">
+        <v>495</v>
+      </c>
+      <c r="L79" t="s">
+        <v>496</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>490</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>2</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>498</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>499</v>
+      </c>
+      <c r="J80" t="s">
+        <v>500</v>
+      </c>
+      <c r="K80" t="s">
+        <v>501</v>
+      </c>
+      <c r="L80" t="s">
+        <v>502</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>504</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>505</v>
+      </c>
+      <c r="J81" t="s">
+        <v>506</v>
+      </c>
+      <c r="K81" t="s">
+        <v>507</v>
+      </c>
+      <c r="L81" t="s">
+        <v>508</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>509</v>
+      </c>
+      <c r="O81" t="s">
+        <v>90</v>
+      </c>
+      <c r="P81" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>510</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>511</v>
+      </c>
+      <c r="J82" t="s">
+        <v>512</v>
+      </c>
+      <c r="K82" t="s">
+        <v>513</v>
+      </c>
+      <c r="L82" t="s">
+        <v>514</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>509</v>
+      </c>
+      <c r="O82" t="s">
+        <v>90</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>2</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>516</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>517</v>
+      </c>
+      <c r="J83" t="s">
+        <v>518</v>
+      </c>
+      <c r="K83" t="s">
+        <v>519</v>
+      </c>
+      <c r="L83" t="s">
+        <v>520</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>521</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>523</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>524</v>
+      </c>
+      <c r="J84" t="s">
+        <v>525</v>
+      </c>
+      <c r="K84" t="s">
+        <v>526</v>
+      </c>
+      <c r="L84" t="s">
+        <v>527</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>529</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>530</v>
+      </c>
+      <c r="J85" t="s">
+        <v>531</v>
+      </c>
+      <c r="K85" t="s">
+        <v>532</v>
+      </c>
+      <c r="L85" t="s">
+        <v>533</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>534</v>
+      </c>
+      <c r="O85" t="s">
+        <v>90</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>535</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>536</v>
+      </c>
+      <c r="J86" t="s">
+        <v>537</v>
+      </c>
+      <c r="K86" t="s">
+        <v>538</v>
+      </c>
+      <c r="L86" t="s">
+        <v>539</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>540</v>
+      </c>
+      <c r="O86" t="s">
+        <v>286</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1</v>
+      </c>
+      <c r="S86" t="n">
+        <v>2</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>541</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>542</v>
+      </c>
+      <c r="J87" t="s">
+        <v>543</v>
+      </c>
+      <c r="K87" t="s">
+        <v>544</v>
+      </c>
+      <c r="L87" t="s">
+        <v>545</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>546</v>
+      </c>
+      <c r="O87" t="s">
+        <v>67</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>547</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>548</v>
+      </c>
+      <c r="J88" t="s">
+        <v>549</v>
+      </c>
+      <c r="K88" t="s">
+        <v>550</v>
+      </c>
+      <c r="L88" t="s">
+        <v>551</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>552</v>
+      </c>
+      <c r="O88" t="s">
+        <v>67</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>553</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>554</v>
+      </c>
+      <c r="J89" t="s">
+        <v>555</v>
+      </c>
+      <c r="K89" t="s">
+        <v>556</v>
+      </c>
+      <c r="L89" t="s">
+        <v>557</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>558</v>
+      </c>
+      <c r="O89" t="s">
+        <v>286</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>560</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>561</v>
+      </c>
+      <c r="J90" t="s">
+        <v>562</v>
+      </c>
+      <c r="K90" t="s">
+        <v>563</v>
+      </c>
+      <c r="L90" t="s">
+        <v>564</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>565</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="s"/>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>566</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>567</v>
+      </c>
+      <c r="J91" t="s">
+        <v>568</v>
+      </c>
+      <c r="K91" t="s">
+        <v>569</v>
+      </c>
+      <c r="L91" t="s">
+        <v>570</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
+        <v>565</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1</v>
+      </c>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>1</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>1</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>571</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>572</v>
+      </c>
+      <c r="J92" t="s">
+        <v>573</v>
+      </c>
+      <c r="K92" t="s">
+        <v>574</v>
+      </c>
+      <c r="L92" t="s">
+        <v>575</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R92" t="s"/>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>3</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>577</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>578</v>
+      </c>
+      <c r="J93" t="s">
+        <v>579</v>
+      </c>
+      <c r="K93" t="s">
+        <v>580</v>
+      </c>
+      <c r="L93" t="s">
+        <v>581</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="s"/>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>21207</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>582</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>583</v>
+      </c>
+      <c r="J94" t="s">
+        <v>584</v>
+      </c>
+      <c r="K94" t="s">
+        <v>398</v>
+      </c>
+      <c r="L94" t="s">
+        <v>585</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="s"/>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>585</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_42.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_42.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="677">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Carol D</t>
+  </si>
+  <si>
     <t>06/28/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>unchndmldy47</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r576851094-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>kmixo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r565817606-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>basspickin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r553088955-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>Napat R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r546478291-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -255,6 +270,9 @@
     <t>The place is not mind-blowing, but it is clean and well located. Public transportation is never a strong point of LA, but with the bus stop right in front of the hotel it is not too difficult to get to the down town of Long Beach. The room wall is however slightly too thin, and you can be disturbed by the people next door. There is still room for improvement for breakfast in terms of both variety and taste. But, hey, given the price, it's not too shabby at all.</t>
   </si>
   <si>
+    <t>patriciafF297UI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r545690418-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -273,6 +291,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>dennybuzz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r542124124-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -291,6 +312,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>M1415RHphilipt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r541295810-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -306,6 +330,9 @@
     <t>The parking ain't the greatest, not much to do in that area.  The ggod thing is it's very close to the freeway, which is also bad if you're trying to get into this hotel during peak traffic time.  This place serves it's purpose I guess, nothing fancy or special, it could be worse I guess.</t>
   </si>
   <si>
+    <t>LuvToCruise4001</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r540428579-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -324,6 +351,9 @@
     <t>This hotel was chosen only because we were unable to secure a room at other Best Western's in the Los Angeles area.The property itself is acceptable.  Friendly enough staff and clean rooms, but amenities (or lack thereof) tend to tell the story of the area and guests of this hotel.  A lack of towels in the bath/shower was the most glaring sign that the clientele was not to be trusted.Free breakfast, a staple of Best Western hotels, left a great deal to be desired.  Sausages served needed to be cut with a knife into bite-sized pieces, but the plastic utensils offered were too flimsy to do the job; scrambled eggs were tasteless.A decent place to stay in a pinch, but not one I would recommend or return to personally.More</t>
   </si>
   <si>
+    <t>Cheryl C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r531876354-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -342,6 +372,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>normank327</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r515384511-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -360,6 +393,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>maryrW4631WL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r515064046-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -375,6 +411,9 @@
     <t>Everyone was really friendly, the rooms were clean and comfortable, the breakfast was great (coffee could use an improvement but I'm picky), the hotel was conveniently located around beaches and there was a Denny's within walking distance which was nice.  I'll stay here again!</t>
   </si>
   <si>
+    <t>Jane D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r509485534-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -390,6 +429,9 @@
     <t xml:space="preserve">Good family spot near airport.  The rooms were good, clean and comfortably slept 5    Didn't make it to the pool.  Breakfast was good.  Staff very friendly.  Only issue was key didn't work very well and staff couldn't fix it.  </t>
   </si>
   <si>
+    <t>angelj380</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r509355272-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -405,6 +447,9 @@
     <t>For the price, the hotel was okay. I expected a bit more for what I paid comparing to similar priced hotels. However, it wasn't a bad experience. Here is the list of pros and cons...Pros:Affordable, rooms were clean, spacious rooms, good customer service, right off the freeway, good locationCons:Free breakfast (No cooked eggs), very limited selection, this is probably my worse experience with free breakfast from the hotels I've stayed, guess you shouldn't complain when it's free!! Haha but I am! Parking spaces are too small, again it's free so.... The t.v. is outdated with poor picture quality, the lightbulb in the room burned out on the flip of the switch (too tired to ask them to swap), old elevator.Well, there you have it. That's my opinion on this room. Would I stay here again, sure, if I don't find a similar priced room from a higher star hotel or brand. But other than that, it was a good experience and recommended for a nice clean room! Oh, there is a dennys within 1 minute walking distance from the hotel so if you aren't satisfied with your meal here ha! Hope this helps!!More</t>
   </si>
   <si>
+    <t>happy262015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r508609823-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -423,6 +468,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>darrinlees2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r507642688-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -438,6 +486,9 @@
     <t>Unless you know how to get into the parking lot, it may be a little odd to figure out at first. Once that is done parking is plentiful. Otherwise a good stay. Breakfast was a rather typical continental style and was also good.</t>
   </si>
   <si>
+    <t>Q8742RSchristopheg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r506661443-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -453,6 +504,9 @@
     <t>Very clean Hotel and room.  Courteous staff.  Breakfast included with nice variety choice including cereal, bagel, muffin, fresh cooked waffles, eggs and sausages, fruits and yogurts as well as coffee, tea, orange juice and other fruit juices.  Free Wifi works great. The only negative was the TV resolution screen which was not very good.  Also, the proximity of the highway makes it a little noisy but it did not disrupt our sleep.</t>
   </si>
   <si>
+    <t>Randall L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r503380491-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -471,6 +525,9 @@
     <t>This was an OK hotel to stay at. the room was nice and the housekeeping staff was phenomenal! however, the matress I had to sleep on was like sleeping on a concrete slab!! I told the front desk about it and all the guy could do was shrug his shoulders and grunt! some customer service. I asked if all the matresses were like this and he said I guess so?!? Some answer to receive! THe hotel entrance was terrible to get in and out of during afternoon traffic. Just about every day when I returned to the hotel, I had to go at least a block down the road, turn around and come back. Breakfast, for the few short days I could use it was OK but they don't open till 7 am and I had to be on my customer's site at 7...More</t>
   </si>
   <si>
+    <t>kejingw2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r499035135-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -489,6 +546,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>J2501USjacquelinep</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r498741309-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -513,6 +573,9 @@
     <t>Let's begin with the monotone front desk associate. While the young woman was not rude, she held no personable customer service attributes and snarled at me when I asked why I needed to sign a nondisclosure regarding smoking in the rooms. She was intense about it and made me uncomfortable. We're not smokers, period. Our room smelled like an ashtray though and where possible hookers urinate on their clientele. The smell was atrocious. My husband hates confrontation and insisted that we not complain, so I took matters into my own hands. I went to target to purchase our own sheets and blankets because ours smelled and had stains, yuck! The breakfast was well below standards, even for BW. The eggs appeared the worst, we left and found a nice cafe within reasonable price range. While I know that much of a vacation isn't spent in your hotel room, I'd still like to experience comfort while I need to be in there. The toilet hardly flushed and the shower did have proper water pressure. I've experienced better pressure in a rinky dink trailer of South Phoenix. For the same price as other competing hotels, you need to step up your game or lower your prices. Paying almost $300 for two nights of scum, was DISAPPOINTING. I will never stay at BW again!More</t>
   </si>
   <si>
+    <t>deborahjG9350FQ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r495199971-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -528,6 +591,9 @@
     <t>I enjoyed my stay this was one of my favorite Best Western Hotels I've ever stayed in. I just wish there were more channel options on the tv. The breakfast was nice and the eating area was clean. I definitely will be back.</t>
   </si>
   <si>
+    <t>CC C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r492910909-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -543,6 +609,9 @@
     <t>The rooms are comfortable and well appointed.  They are not too well insulated for sound.  The hotel is in an industrial area with older apartments.  It's not too far from a number of tourist attractions.   We will stay there again.  .</t>
   </si>
   <si>
+    <t>UntoldEvolution</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r490343986-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -567,6 +636,9 @@
     <t>No TV service in room, broken a/c in room, 6-8 comforters stored between mattress and box spring, one single working outlet in room, internet out in lobby and broken lobby printer (unable to print boarding passes), generally dirty everywhere, unfriendly staff. Very disappointed in this location. Best Western is usually an impressive stay no matter where you go, except LA Worldport.More</t>
   </si>
   <si>
+    <t>ligayam2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r488956310-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -585,6 +657,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>Laura A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r478660133-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -603,6 +678,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>madscientistonskiis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r474262548-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -618,6 +696,9 @@
     <t>Very clean and recently renovated rooms. Queen and King rooms have sitting desk and working desk with excellent WiFi reception in rooms. Hotel is well managed with lots of parking. Rates are reasonable for this part of town.</t>
   </si>
   <si>
+    <t>L8167IDshirleyh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r468702582-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -636,6 +717,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>kadeking</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r462614275-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -654,6 +738,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>nicolinam275</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r459901660-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -669,6 +756,9 @@
     <t>Hotel was good quality for money paid. My only criticism was that the desk chair in the room had the leather/imitation leather was peeling, so it didn't look nice. The bed was very comfortable and the other amenities were fine. I called the office twice and received very speedy and efficient service.</t>
   </si>
   <si>
+    <t>J_S_2011_S_J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r458181902-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -684,6 +774,9 @@
     <t>The rooms were clean and the shower had great water pressure (important to women with long hair).  I did not find the bed to be very comfortable however, it was too hard for my taste.  Also, there is a fair amount of road traffic you can hear in the room (if that bothers you).  The internet was not very strong.  It's an ok place to lay your head for the night, and it's probably the best you'll find for the price; but, I don't think I'd want to have an extended stay there.</t>
   </si>
   <si>
+    <t>Anishika S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r426546382-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -702,6 +795,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>Linda S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r426068295-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -717,6 +813,9 @@
     <t>I have stayed at this hotel numerous times and have had great experiences each time. The rooms smell good even the smoking rooms. The beds are big and comfy, adequate tv channels, the windows actually open so you can feel the California weather. The halls were very hot on my last stay no biggie! The shower feels good, nice and hot. They need to do a better job for breakfast but there is however a Ihop next door, I've never eaten there though. Overall I will still stay there over and over.</t>
   </si>
   <si>
+    <t>Jan B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r424797218-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -738,6 +837,9 @@
     <t>Great location if you want to get on Hwy 110 or Pacific Coast Hwy, but terrible for sleep.  Cars peeling out and revving their engines all hours of the night, and this hotel is right at the intersection.  While it was very clean, there are no real extra's.  No coffee in the lobby, and breakfast isn't open until 7 AM.  The coffee maker in the room only made one cup - for three adults?  The TV selection was poor, and no guide was provided.  No Best Western book in our room, so we didn't know what was nearby.  No grab bar or mat in the tub, which made it a safety hazard.  Breakfast was mediocre, just grab and go stuff.  Only an outdoor pool which opens only to stairs (so not wheelchair accessible), and no workout room.  There was a convenience store and gas station across the street - if you wanted to risk life and limb getting there!  Otherwise, walking score was zero (nearest grocery was about a mile away).  Definitely not worth the price.More</t>
   </si>
   <si>
+    <t>Muyao L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r405976098-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -756,6 +858,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Sheila Louella O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r400664647-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -774,6 +879,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Gracielle D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r397614416-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -792,6 +900,9 @@
     <t>I didn't have any problem with location, price and room! It's decent for amount of money that I pay! All things inside was working. We even have small refrigerator! Wish they have microwave! Reception was nice and friendly! We had small talked ask me what part of Florida I'm from, when she saw my Drivers lic! Inform me about continental breakfast! Next to hotel was Denny's ! Parking was easy no problem! Secure! Internet was free so I can't complain that sometimes is slow! Over all is good place to stay, I have 2 small kids with me and my husband! Good driving distance to all the place we visit! I can come back again for future use!  More</t>
   </si>
   <si>
+    <t>franceliaf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r385452712-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -810,6 +921,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Esmeralda V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r376318127-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -843,6 +957,9 @@
     <t>I look for a clean room; I found one; we will be back!  You will not be dissatisfied with the quality of the room you are given.  Breakfast coffee great;  other items on menu I could take or leave, but...my interest was the cleanliness of the room and received this.</t>
   </si>
   <si>
+    <t>charlenes126</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r367078178-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -861,6 +978,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Darrend3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r363304818-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -879,6 +999,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>teetermom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r357970687-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -895,6 +1018,9 @@
   </si>
   <si>
     <t>March 2016</t>
+  </si>
+  <si>
+    <t>AGoingGal</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r347011034-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
@@ -924,6 +1050,9 @@
 Our bed was interesting as it shook every time one of us moved or coughed.  The...Older, well worn hotel.  The lobby was very large and fairly unwelcoming - it seemed to need more furnishings.  Our room appeared clean enough and the countertop to the vanity area seems to have been recently renovated.  There was a nice size TV (42” perhaps) mounted to the wall and our room had enough space.  The entire place could do with a remodel.  The power outlets were not really accessible.  There was nothing near the bed where I had to sit (the room didn’t have an easy chair, only a table with two chairs and no outlets there either).  There was no lobby coffee and no microwaves in room - but there was one in the breakfast area that the front desk staff would unlock for us to use.  This microwave was super as it was 1200 watts and cooked our popcorn perfectly in 90 seconds.  Internet was not very robust and I could not stream videos. There were no grab bars of any kind in the tub - we didn’t feel very secure using it.  The sink area is in the main part of the room and had a generous vanity that also held the in room coffee items and the ice bucket.The smoking rooms are on the top floor so, if you are a nonsmoker you won’t want to be there.  Our bed was interesting as it shook every time one of us moved or coughed.  The mattress looked different than anything I’ve seen in a hotel before and it reminded me of those I've seen in university residence halls.  We would have done much better with two beds.  Hal, the manager was very understanding when I explained the issue and he said he’d be replacing the bed in our room (324).  He was very concerned about our discomfort and I was impressed by his reaction.  If two people will be occupying the room, I’d recommend checking the bed immediately or opt for a room with two beds.Breakfast was continental but sufficient.  They had cereal, a waffle maker, hard boiled eggs, oatmeal packages, Yoplait yogurt, breads for toasting and sweet rolls.  Nothing else was really needed.More</t>
   </si>
   <si>
+    <t>Carl T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r345105224-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -939,6 +1068,9 @@
     <t>car broken into and 2 carryons taken. GenMgr never was in attendance or called me. $230 to repair window and not a word about their culpability. I asked to park in front-they said no park in underground spots.</t>
   </si>
   <si>
+    <t>Patrick D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r341107355-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -954,6 +1086,9 @@
     <t>My room was located next to stair entrance.  Through the night I become aware of the stair door being closed.  The noise was a very short metalic sound, yet loud enough to wake me up from my sleep.  The interruption occurred at least 10 times.</t>
   </si>
   <si>
+    <t>William V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r332203712-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -972,6 +1107,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Angelina R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r330946201-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -990,6 +1128,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>HotelGuruGirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r329386677-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1005,6 +1146,9 @@
     <t>This hotel is alright. Does need updating.Despite it being holiday the hotel was quiet which was nice. Room itself is outdated and needed a new mini fridge and coffee maker. TV was old and has less than 30 channels with nothing on. Atleast the wifi was decent. I don't like the 2 sided door sign with one that do not disturb and the other says please clean. I think people go by and flip them over because I got a knock my door from housekeeping. There is plenty of parking and they have luggage carts. I'd maybe stay again if they improve the hotel.</t>
   </si>
   <si>
+    <t>juttabw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r325626579-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1023,6 +1167,9 @@
     <t>Nice hotel for the purpose of leaving your car when taking a cruise. For a one night stay you can leave your car for up to 14 days. They do not offer shuttle service. We take a cab to the port. Much more convenient. With tip taxi fair around $20. When we return another cab back to the hotel to get the car. Easier than waiting for a hotel shuttle bus. Breakfast we skipped but went next door to Denny's instead. Room nice size, comfortable bed, good shower. Getting there off the 110 on to Pacific Coast Highway a little tricky, busy corner. My GPS made me turn left (east) on PCH but coming south make a right onto PCH, hotel on the left after you turn next to Denny's.More</t>
   </si>
   <si>
+    <t>Ben M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r324323963-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1041,6 +1188,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>J K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r323796222-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1059,6 +1209,9 @@
     <t>We were visiting grandchildren in the San Pedro area and normally stay in the Best Western Plus on Gaffey St., but even though we'd booked several months in advance, that hotel did not have 5 consecutive nights open during our visit.  Good medium-range price hotels are rare in the port area so we booked a room at Best Western LA Worldport only 10 minutes north of our son's house. The location is a very busy one (almost under I-110) so we asked for a far room.   The first problem was the king bed. Every time one of us moved, the other would feel it like an ocean wave. The second problem presented itself at 2:00 a.m. when very loud noise from a party in the adjoining room filtered through the door. (Avoid adjoining rooms.) We called management but the noise continued another hour.  Next morning we spoke with the Manager, Hal, and he addressed the situation immediately. He took time to speak with us at length to determine the problems and took immediate action.  Our room was changed to a quiet, non-adjoining type room and we heard no more noise for the rest of our stay. Hal had housekeeping exchange the mattress in the new room for a new mattress from their warehouse next door and, although it was slightly less 'wave-inducing' than the first one, still did not come up to the standard of mattress a hotel of this...We were visiting grandchildren in the San Pedro area and normally stay in the Best Western Plus on Gaffey St., but even though we'd booked several months in advance, that hotel did not have 5 consecutive nights open during our visit.  Good medium-range price hotels are rare in the port area so we booked a room at Best Western LA Worldport only 10 minutes north of our son's house. The location is a very busy one (almost under I-110) so we asked for a far room.   The first problem was the king bed. Every time one of us moved, the other would feel it like an ocean wave. The second problem presented itself at 2:00 a.m. when very loud noise from a party in the adjoining room filtered through the door. (Avoid adjoining rooms.) We called management but the noise continued another hour.  Next morning we spoke with the Manager, Hal, and he addressed the situation immediately. He took time to speak with us at length to determine the problems and took immediate action.  Our room was changed to a quiet, non-adjoining type room and we heard no more noise for the rest of our stay. Hal had housekeeping exchange the mattress in the new room for a new mattress from their warehouse next door and, although it was slightly less 'wave-inducing' than the first one, still did not come up to the standard of mattress a hotel of this caliber should be using. That being said, we slept quite well the next four nights, in part because we felt Hal addressed our complaints with quick action and empathy. Thank you, Hal!More</t>
   </si>
   <si>
+    <t>Kathleen K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r315737517-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1077,6 +1230,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Babak G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r314200214-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1092,6 +1248,9 @@
     <t>i just find this location i was with my girlfriend and we have very good experience with this hotel and room room was really clean fresh air with perfect AC unite  service was excellent  people working at lobby doing good job friendly and fast  I'm prey sure we come back and choose this location again  come back soon   thank you</t>
   </si>
   <si>
+    <t>Will C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r303573225-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1110,6 +1269,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Megan F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r296508712-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1125,6 +1287,9 @@
     <t>The staff at this location was very kind, attentive and willing to accommodate reasonable requests. We were greeted each morning by, presumably, the manager who was very cheerful and the staff in the breakfast area actually engaged in conversation. It was very busy, but everyone appeared to be content. The rooms were clean and comfortable. It is next to the freeway and in the city, so more sensitive sleepers might find that challenging.</t>
   </si>
   <si>
+    <t>Andrea D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r290004334-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1143,6 +1308,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>William M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r285958859-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1158,6 +1326,9 @@
     <t>We had an enjoyable time except for the noisy party out on the patio until about 2:00 AM.  It seemed directly under our window.  Other than that, we enjoyed our stay and would certainly entertain staying there again when the occasion arises.</t>
   </si>
   <si>
+    <t>sudipta b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r272979795-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1176,6 +1347,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Stefania D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r271224966-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1191,6 +1365,9 @@
     <t>I was a little skeptical about this place because of the reviews but it turned out to be pretty decent.  The service could definitely be better but the place was good enough for one night.  Cleaning wasn't such an issue in my room but I heard other people complaining that were walking by me.   I suppose you can give it a try</t>
   </si>
   <si>
+    <t>RupeshKG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r261819014-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1209,6 +1386,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>thomasa718</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r251162252-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1227,6 +1407,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>Angelo T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r247628728-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1248,6 +1431,9 @@
     <t>We stayed at this hotel because my sister told me that they have free shuttle and free parking at  their facility. Imagine my disappointment when Vanessa at front desk told me that they can get my family a cab to port and leave our SUV at the hotel parking structure for the nominal fee of $10. I told her I will just drive to port the next day because it will be less expensive for us to just pay the port parking fee without having to pay for cab (suggestion to management, why not offer free port shuttle since your hotel is near the port). The room was clean and nice, the street noise didn't bother us too much. The breakfast attendant Patricia was very attentive and pleasant. Overall experience, not bad...More</t>
   </si>
   <si>
+    <t>Karleen K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r245709593-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1278,6 +1464,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Estevan R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r234238090-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1293,6 +1482,9 @@
     <t>We arrived at the Los Angeles WorldPort Best Western, at 6:44 p.m., on Saturday, October 11, 2014. Upon entering our reserved, paid for room at 6:50 p.m., we found the room unattended to; the bed was used, trash in the garbage can, and used towels with questionable substances on the bathroom sink.  We captured photos of the scene and returned to the front desk to confront the attendant.  Unfortunately, the individual was inexperienced and did not fully comprehend the inconvenience we were subjected to.  What made the situation unbearable was after driving two hours from Bakersfield, California, intending to arrive at the lodging location for a prepared room with enough time to spare to shower and dress for our evening's event,  we were told to wait for housekeeping so they may attend to the room.  After an hour and 15 minutes of waiting for our room to cleaned, we still hadn't been told our room was ready; I personally went to our reserved room #322, and found no one was in there!  Why we were kept waiting was another frustrating fact.  I returned downstairs, asked for my key to enter my room.  Again, the unprofessionalism of the entire staff at the Los Angeles WorldPort Best Western is absolutely appalling.  No compensation can resolve this terrible experience.  We will be sharing this negative experience with our family, friends, business associates, and clientele; honestly, we hope that the franchise of Best Western...We arrived at the Los Angeles WorldPort Best Western, at 6:44 p.m., on Saturday, October 11, 2014. Upon entering our reserved, paid for room at 6:50 p.m., we found the room unattended to; the bed was used, trash in the garbage can, and used towels with questionable substances on the bathroom sink.  We captured photos of the scene and returned to the front desk to confront the attendant.  Unfortunately, the individual was inexperienced and did not fully comprehend the inconvenience we were subjected to.  What made the situation unbearable was after driving two hours from Bakersfield, California, intending to arrive at the lodging location for a prepared room with enough time to spare to shower and dress for our evening's event,  we were told to wait for housekeeping so they may attend to the room.  After an hour and 15 minutes of waiting for our room to cleaned, we still hadn't been told our room was ready; I personally went to our reserved room #322, and found no one was in there!  Why we were kept waiting was another frustrating fact.  I returned downstairs, asked for my key to enter my room.  Again, the unprofessionalism of the entire staff at the Los Angeles WorldPort Best Western is absolutely appalling.  No compensation can resolve this terrible experience.  We will be sharing this negative experience with our family, friends, business associates, and clientele; honestly, we hope that the franchise of Best Western will reap the repercussions of employing personnel that do not respect and maintain the organization's slogan of "Stay with people that care".More</t>
   </si>
   <si>
+    <t>Theklb9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r231990748-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1308,6 +1500,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>lprdgrl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r221250555-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1329,6 +1524,9 @@
     <t>After reading some negative reviews I was pleasantly surprised.  It is an older/basic hotel, but it appears renovations are currently being done (new counters in room - we noticed old ones outside ready for trash pick-up)   All in all, we would stay here again when in the area. Cons: Very thin walls - could hear TV in room across hall Bed hard and lumpy - was able to sleep ok Minor construction issues - hot/cold water reversed on bathroom sink, plug upside-down, new counter smaller than old (wall not yet repaired), etc. Pros: Staff nice and helpful - especially the hard-working lady that ran the breakfast room Great location near freeway - easy access to area attractions Right next door to Denny's for a quick biteMore</t>
   </si>
   <si>
+    <t>Gonzalo J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r219451201-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1347,6 +1545,9 @@
     <t>Since I tasted for the first time 2 years ago the Best Western Chain Hotels in Saint George UTAH, I enjoyed so much that I decided to take my chance and choose the same chain when I travel across the US, and the Best Western Los Angeles Worldport California, didnt disappoint me this time either. What I have got in terms of service and room quality was beyond I paid for the room and I am very happy. Also, I brought some friends with me and they were ver pleased too.The hotel is very well located, close to the downtown, and the Dennis restaurant that is just few steps make it really convenient....More</t>
   </si>
   <si>
+    <t>Maria L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r219609364-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1362,6 +1563,9 @@
     <t>Since I tasted for the first time 2 years ago the Best Western Chain in Saint George UTAH, I enjoyed so much that I decided to take my chance and choose the same chain when I travel across the US, and the Best Western Worldport California, didnt disappoint me this time either. What I have got in terms of service and room quality was beyond I paid for the room and I am very happy. Also, I brought some friends with me and they were ver pleased too.The hotel is very well located, close to the downtown, and the Dennis restaurant that is just few steps make it really convenient....More</t>
   </si>
   <si>
+    <t>MsC29</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r215828919-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1377,6 +1581,9 @@
     <t>The hotel is clean. Its in a busy commercial area. They do not have an onsite fitness center. The staff experience is inconsistent. The price was consistent with other hotels of equal status in the area.</t>
   </si>
   <si>
+    <t>Jose C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r214933510-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1392,6 +1599,9 @@
     <t>Conveniently located.  The rooms were pretty clean and all staff were nice.  Breakfast included with stay, this was a definite plus, a lot of items to chose from.  Wi-Fi was slow, this was probably the only draw back.  Other than that, all was well.</t>
   </si>
   <si>
+    <t>George M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r213566392-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1407,6 +1617,9 @@
     <t>For a one night stay over on a business trip, this hotel provides good accommodations.  Easy Off-Easy On to the 110 Fwy.  Adjacent to Denny's for a quick meal - morning, noon, night..  Bed was very comfortable; spacious room with coffee maker, refrigerator and quality television.</t>
   </si>
   <si>
+    <t>Laureen S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r209677366-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1425,6 +1638,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Jose H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r207207649-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1443,6 +1659,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Dr Gary L S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r197799943-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1461,6 +1680,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Jarod H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r183828553-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1479,6 +1701,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>DDDColorado</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r178450346-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1500,6 +1725,9 @@
     <t>I chose this hotel because it was exactly midway between the two locations I needed to be traveling between. It is right next to I-110 and you can only turn right when you exit and you can only enter from one direction. This makes for a lot of U-Turns.Pros;The hotel staff was very considerate and friendly.I did get a non-smoking room and it was very clean.The room was on the opposite side from the freeway and the room was quiet.Very nice shower - shower head was high and large-water flow was good.The continental breakfast area was clean and presented well.They charged me less than the price I booked online. Reasonable price.Cons;The elevator was broken when I arrived on Monday and was not repaired until late Thursday.The ice machine on the second and third floor was broken so more stair climbing to get ice from  the front desk. Broken the entire week.The printer was broken and unable to print my boarding pass Thursday night. There was crumpled paper everywhere and the printer and PC had not been checked or serviced in quite a while.More</t>
   </si>
   <si>
+    <t>Rita L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r176956588-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1518,6 +1746,9 @@
     <t>Horrible...could not enjoy a nice rest especially traveling for 3-4 hours for business. I had complained already and nothings been taken care of. This time the elevator was out of service and it was not an easy route to carry your luggage all the way to the top floor. The rooms are decent but with the price I'm paying per night is not worth it. The king size bed has a dent in the mattress where its probably really old and worn out. Made it really uneasy to have a good nights rest. I rather would pay for a motel 6 for the same quality of bed rest. It's ridiculous. Sheets where all over the hallway, trashy environment.More</t>
   </si>
   <si>
+    <t>ForRealThough</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r153829119-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1536,6 +1767,9 @@
     <t>The girl at the front desk was very nice, but that's about it.  The hallway reeked of mold and alcohol.  The rooms smelled a little bit better only because it did not smell like alcohol.  The room still reeked of mold.  All of the bed bug comments made my legs itchy, but I never actually saw any bed bugs.  The towel rack in the bathroom was covered in rust so much so that I would not take a shower.  I felt really uncomfortable; it wasn't clean enough for what I paid.  The carpets had burn marks.  I will not stay here ever again.  It was the absolute worst hotel I have stayed at since I can remember.  I was not a happy customer!  Thanks a lot Priceline; your rating of 8/10 was beyond generous - it was delusional!More</t>
   </si>
   <si>
+    <t>Stacyb100</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r136227657-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1554,6 +1788,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>jindos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r134276262-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1572,6 +1809,9 @@
     <t>I will no longer trust AAA rate.  I booked two rooms with double queen beds.  The night I checked in (around 8 PM), one room did not have any towel,  under the chair next to the TV there was a q-tip.  It must have been there for awhile.  I suspect they didn't clean the room prior to us checked in.  I called the front desk to ask for towels and were told I need to come down to get it since there was no one else available to take them up.  The next day, when we came back in the evening, the beds were made, the trash clean out, towels were provided.  However, the q-tip was still there under the chair.  I don't think the service lady vacuum the room at all.  On the third day, when we came back, nothing was done.  Beds were unmade, trash in the bed room and the front room were still there ( and the q-tip). When I came down to the front desk and asked why my room weren't being clean, I didn't get even an apologize from the front desk.  The front desk lady only asked what room and asked me if I want them clean tomorrow. Very rude and inappropriate behavior for the service industry.  I am not even sure if AAA was doing a good job at rating this hotel, but to me they do not deserve a three star...I will no longer trust AAA rate.  I booked two rooms with double queen beds.  The night I checked in (around 8 PM), one room did not have any towel,  under the chair next to the TV there was a q-tip.  It must have been there for awhile.  I suspect they didn't clean the room prior to us checked in.  I called the front desk to ask for towels and were told I need to come down to get it since there was no one else available to take them up.  The next day, when we came back in the evening, the beds were made, the trash clean out, towels were provided.  However, the q-tip was still there under the chair.  I don't think the service lady vacuum the room at all.  On the third day, when we came back, nothing was done.  Beds were unmade, trash in the bed room and the front room were still there ( and the q-tip). When I came down to the front desk and asked why my room weren't being clean, I didn't get even an apologize from the front desk.  The front desk lady only asked what room and asked me if I want them clean tomorrow. Very rude and inappropriate behavior for the service industry.  I am not even sure if AAA was doing a good job at rating this hotel, but to me they do not deserve a three star for the staff they have there.More</t>
   </si>
   <si>
+    <t>airebornranger</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r129680284-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1593,6 +1833,9 @@
     <t>Just spent one night here for a convention. It is right next to the freeway on ramp on Pacific Coast Highway. You need to pull a nasty fast, U-turn to get in coming from Long Beach. Lots of free parking, fair A/C, just loud enough to drown out the traffic noise. Nice size pool &amp; spa which you enter and exit from the end of building fire stairs right into the pool area. The breakfast is nothing to write home about, but there is a Denny's right next door &amp; I would go there before eating at the BW again. Plus's are much better quality breakfast. Again the same rotten corporate, hard as rocks pillows. Great for propping up in bed to watch TV, horrible for your neck to sleep. If you are a Chiropractor, buy plenty of business cards and leave them at the front check out for customers in need of a neck re-alignment. If there was one huge dig on BW's chain it is these miserable excuse for pillows. The king room I had was not one I would ever, ever want again. The sink, cube of a refrigerator, coffee pot, microwave and mirror were right inside the door, not in the bathroom. I slammed the door into my lady who was at the sink when I came back from the lobby. Definitely not something you want to happen on a trip. The bed was OK, not...Just spent one night here for a convention. It is right next to the freeway on ramp on Pacific Coast Highway. You need to pull a nasty fast, U-turn to get in coming from Long Beach. Lots of free parking, fair A/C, just loud enough to drown out the traffic noise. Nice size pool &amp; spa which you enter and exit from the end of building fire stairs right into the pool area. The breakfast is nothing to write home about, but there is a Denny's right next door &amp; I would go there before eating at the BW again. Plus's are much better quality breakfast. Again the same rotten corporate, hard as rocks pillows. Great for propping up in bed to watch TV, horrible for your neck to sleep. If you are a Chiropractor, buy plenty of business cards and leave them at the front check out for customers in need of a neck re-alignment. If there was one huge dig on BW's chain it is these miserable excuse for pillows. The king room I had was not one I would ever, ever want again. The sink, cube of a refrigerator, coffee pot, microwave and mirror were right inside the door, not in the bathroom. I slammed the door into my lady who was at the sink when I came back from the lobby. Definitely not something you want to happen on a trip. The bed was OK, not great, or the same Simmon's quality I had at the BW Long Beach Convention Center location, but it was 50% less in price. Would I stay here again? No! I would go to the Comfort Inn &amp; Suites where I have stayed in Long Beach.More</t>
   </si>
   <si>
+    <t>Valarien</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r123943261-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1611,6 +1854,9 @@
     <t>I stayed two nights while attending an event at the Long Beach Convention Center. Everything near the convention center was sold out or very expensive. I have a car and this hotel is conviently located next to the 110 freeway entrance and exit. The drive over the bridge to  Long Beach was scenic and easy. My room faced the freeway; surprisingly the noise did not bother me and I'm usually noise sensitive. The staff was friendly. The rooms were clean the bedding and furniture looked fairly new. I used the iron, refridgerator, hairdryer, coffee maker,tv-what more do you need? They also have a small pool and serve breakfast. The price was unbeatable with my triple A discount. If I had to complain about anything I would remember to bring my own pillow next time. The hotel pillows were hard foam and I looked forward to getting home to my more comfortable bed. Overall I was very happy with my experience and would stay here again in the future.More</t>
   </si>
   <si>
+    <t>rosa57701</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r120744438-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1629,6 +1875,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>wr11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r102985725-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1647,6 +1896,9 @@
     <t>March 2011</t>
   </si>
   <si>
+    <t>paddickp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r77987924-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1665,6 +1917,9 @@
     <t>August 2010</t>
   </si>
   <si>
+    <t>Debbie066</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r47372238-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1681,6 +1936,9 @@
   </si>
   <si>
     <t>October 2009</t>
+  </si>
+  <si>
+    <t>Bay_Arean2</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r8364637-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
@@ -1710,6 +1968,9 @@
 Apart from that initial whiff, the room I got was as described.  All major appliances were in satisfactory working order.  I can't comment on the cofee maker or iron; I never used them.  The room was missing the remote control for the television, but as luck would have it, I noticed the adjacent room was being cleaned when I first got...There were very few reviews of this property that I could find, and those that I could find were equally weighted from bad to good.  I was initially put off, but because the rates were good ($70/night on a government discount plan) I took the chance and booked my two-night stay.My first concern was with bed bugs.  I recently heard that they have been making a comeback in US hotels, and there was mention of them in another review of this hotel on this website.  Good news for me, there were no bed bugs.I booked a non-smoking room with a king sized bed.  There was always an odor that I could smell each time I entered the room but would disappear as I got used to it.  That smell makes me suspect it was previously a smoking room (or the previous guest had smoked heavily in the room) and the staff tried to get out the smell with those scented fabric sprays.  However, the bedding (not including the top comforter) smelled and felt clean.  No complaints there.Apart from that initial whiff, the room I got was as described.  All major appliances were in satisfactory working order.  I can't comment on the cofee maker or iron; I never used them.  The room was missing the remote control for the television, but as luck would have it, I noticed the adjacent room was being cleaned when I first got to the room.  I just told the chambermaid the problem and voila, she produced a remote that worked!The bathroom was clean and smelled clean.  The towels weren't the big, fluffy ones, but instead were the thin seemingly threadbare ones, which are to be expected in this type of establishment.  While the water pressure could have been better, I never felt I was getting a substandard bath.  (You might think that's an odd statement, but I've taken showers with such low water pressure and such soft water that it's taken me three times as long to wash off, and still I felt soapy).The view out the window was of another building and most prominently their dumpsters overflowing with trash.  I kept the heavy drapes closed.  The room was fairly well-isolated from outside noises.I was here for literally two-nights between 10:30 PM to 7 AM, pretty much to bathe and sleep, so I can't comment on the other property amenities nor the continental breakfast.  Parking seemed ample and not a problem.  All in all, a good value for the money if all you need is a place to rest at the end of the day.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r4724830-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1728,6 +1989,9 @@
     <t>February 2006</t>
   </si>
   <si>
+    <t>Brianrc11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r4579400-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1741,6 +2005,9 @@
   </si>
   <si>
     <t>After staying in this hotel for one night, I woke up to find my bed crawling with bed bugs and I got at least 200 bites that itched for three weeks! I told the manager while I was checking out and he didn't care at all. I made a complaint to Best Western and the hotel would not even contact them to address the problem....and the elevator doesn't work well, the people at the front desk are sketchy, my TV didn't work...But the place is truly infested with bed bugs! They are large and orange.Stay Away!</t>
+  </si>
+  <si>
+    <t>westoverroad</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r4335228-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
@@ -1769,6 +2036,9 @@
 The electronic door locks were different from any I had ever seen before, and it took awhile to figure out just how to get the...The Best Western World Port is somewhere between a dive and a cheap hotel.  It would appear that the hotel has been purchased fairly recently and the new owners have attempted an inexpensive upgrade.  And it's also quite clear that the current management is trying to get by with a least-cost maintenance approach.The first room they gave us didn't have a working heater; the walls had spots where the wallpaper had been torn off in horizontal long strips; and their free wireless internet signal was not strong enough unless we went out into the hall outside the room.The staff willingly gave us a second room, but the second room had a weak wireless internet signal (unless one used a laptop near the front door); had a shower head that didn't provide much water pressure (it might have been clogged); and had a water delivery system that either burned your skin or froze you with variable temperature water.  Also, the second room faced the Harbor (110) Freeway and so it was noisy at night.The elevator behaved strangely.  The door would open or close randomly.  Many of the lights on the buttons didn't work; nor did the elevator tell you what floor you were on.  It appeared that it simply wasn't being properly maintained.The electronic door locks were different from any I had ever seen before, and it took awhile to figure out just how to get the door open.The continental breakfast isn't much.  Coffee was the only thing we consumed.  We went to the Denny's next door one morning and sought out another restaurant for breakfast the next day.I picked the hotel because of a good price and because of the advertised free high speed wireless internet.  I wish now that I had picked a different place in the LA area.  There are plenty of other alternatives at equivalent prices.  Stay at those places and not the Best Western World Port.More</t>
   </si>
   <si>
+    <t>scottstraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r4051069-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1782,6 +2052,9 @@
   </si>
   <si>
     <t>Nothing fancy but this was a clean hotel with good sized rooms - we had the room with 2 king beds - great location if you are taking a cruise - only about 5-10 minutes down the 110 freeway to the port</t>
+  </si>
+  <si>
+    <t>Twickenham0</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d81120-r3194888-Best_Western_Los_Angeles_Worldport_Hotel-Los_Angeles_California.html</t>
@@ -2298,43 +2571,47 @@
       <c r="A2" t="n">
         <v>21207</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>11791</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -2358,50 +2635,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>21207</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>153411</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2423,50 +2704,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>21207</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>153412</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2490,50 +2775,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>21207</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>153413</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
         <v>70</v>
-      </c>
-      <c r="K5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" t="s">
-        <v>67</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2557,50 +2846,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>21207</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>153414</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>77</v>
       </c>
-      <c r="L6" t="s">
-        <v>78</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>73</v>
-      </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2618,50 +2911,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>21207</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>153415</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -2685,50 +2982,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>21207</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>153416</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -2752,50 +3053,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>21207</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>153417</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -2819,50 +3124,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>21207</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>153418</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" t="s">
         <v>97</v>
-      </c>
-      <c r="J10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" t="s">
-        <v>100</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O10" t="s">
-        <v>90</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -2882,50 +3191,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>21207</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>16821</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="O11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -2949,50 +3262,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>21207</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>153419</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -3016,50 +3333,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>21207</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>153420</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="O13" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -3083,50 +3404,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>21207</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>2127</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="K14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="O14" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3140,50 +3465,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>21207</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>153421</v>
+      </c>
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
         <v>124</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
-        <v>125</v>
-      </c>
-      <c r="J15" t="s">
-        <v>121</v>
-      </c>
-      <c r="K15" t="s">
-        <v>126</v>
-      </c>
-      <c r="L15" t="s">
-        <v>127</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3</v>
-      </c>
-      <c r="N15" t="s">
-        <v>113</v>
-      </c>
       <c r="O15" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3197,50 +3526,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>21207</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>153422</v>
+      </c>
+      <c r="C16" t="s">
+        <v>143</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="J16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="K16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="L16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="O16" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -3264,50 +3597,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>21207</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>153423</v>
+      </c>
+      <c r="C17" t="s">
+        <v>150</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="J17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="K17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="L17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -3331,50 +3668,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>21207</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>153424</v>
+      </c>
+      <c r="C18" t="s">
+        <v>156</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="J18" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="O18" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3398,50 +3739,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>21207</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>42245</v>
+      </c>
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="J19" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="K19" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
         <v>149</v>
       </c>
-      <c r="M19" t="n">
-        <v>3</v>
-      </c>
-      <c r="N19" t="s">
-        <v>134</v>
-      </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -3465,50 +3810,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>21207</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>153425</v>
+      </c>
+      <c r="C20" t="s">
+        <v>169</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="J20" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="K20" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="L20" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="O20" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3532,50 +3881,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>21207</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>153426</v>
+      </c>
+      <c r="C21" t="s">
+        <v>176</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="J21" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="K21" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="O21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -3597,56 +3950,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="X21" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="Y21" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>21207</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>153427</v>
+      </c>
+      <c r="C22" t="s">
+        <v>185</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="J22" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="K22" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="L22" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="O22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3670,50 +4027,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>21207</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>153428</v>
+      </c>
+      <c r="C23" t="s">
+        <v>191</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="J23" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="K23" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="L23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="O23" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -3737,50 +4098,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>21207</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>153429</v>
+      </c>
+      <c r="C24" t="s">
+        <v>197</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="J24" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="K24" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="L24" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="O24" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -3802,56 +4167,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="X24" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="Y24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>21207</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>153430</v>
+      </c>
+      <c r="C25" t="s">
+        <v>206</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="J25" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="K25" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="L25" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="O25" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -3875,50 +4244,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>21207</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>15275</v>
+      </c>
+      <c r="C26" t="s">
+        <v>213</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="J26" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="K26" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="L26" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="O26" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3942,41 +4315,45 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>21207</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>153431</v>
+      </c>
+      <c r="C27" t="s">
+        <v>220</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="J27" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="K27" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="L27" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
@@ -3995,50 +4372,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>21207</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>153432</v>
+      </c>
+      <c r="C28" t="s">
+        <v>226</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="J28" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="K28" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="L28" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="O28" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -4062,50 +4443,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>21207</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>153433</v>
+      </c>
+      <c r="C29" t="s">
+        <v>233</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="J29" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="K29" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="L29" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -4129,50 +4514,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>21207</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>153434</v>
+      </c>
+      <c r="C30" t="s">
+        <v>240</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="J30" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="K30" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="L30" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="O30" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -4194,50 +4583,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>21207</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>153435</v>
+      </c>
+      <c r="C31" t="s">
+        <v>246</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="J31" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="K31" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="L31" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4251,50 +4644,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>21207</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>153436</v>
+      </c>
+      <c r="C32" t="s">
+        <v>252</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="J32" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="K32" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="L32" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4318,50 +4715,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>21207</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>6383</v>
+      </c>
+      <c r="C33" t="s">
+        <v>259</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="J33" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="K33" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="L33" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="O33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -4385,50 +4786,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>21207</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>3612</v>
+      </c>
+      <c r="C34" t="s">
+        <v>265</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="J34" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="K34" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="L34" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="O34" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P34" t="n">
         <v>2</v>
@@ -4448,50 +4853,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>21207</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>153437</v>
+      </c>
+      <c r="C35" t="s">
+        <v>273</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="J35" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="K35" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="L35" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="O35" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4515,50 +4924,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>21207</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>153438</v>
+      </c>
+      <c r="C36" t="s">
+        <v>280</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="J36" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="K36" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -4582,41 +4995,45 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>21207</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>153439</v>
+      </c>
+      <c r="C37" t="s">
+        <v>287</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="J37" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="K37" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="L37" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
@@ -4635,50 +5052,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>21207</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>153440</v>
+      </c>
+      <c r="C38" t="s">
+        <v>294</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="J38" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="K38" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="L38" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -4702,50 +5123,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>21207</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>153441</v>
+      </c>
+      <c r="C39" t="s">
+        <v>301</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="J39" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="K39" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="L39" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="O39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P39" t="n">
         <v>2</v>
@@ -4769,50 +5194,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>21207</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>11791</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="J40" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="K40" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="L40" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4836,50 +5265,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>21207</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>153442</v>
+      </c>
+      <c r="C41" t="s">
+        <v>313</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="J41" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="K41" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="L41" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="O41" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -4903,50 +5336,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>21207</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>153443</v>
+      </c>
+      <c r="C42" t="s">
+        <v>320</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="J42" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="K42" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="L42" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="O42" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4960,50 +5397,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>21207</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>153444</v>
+      </c>
+      <c r="C43" t="s">
+        <v>327</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="J43" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="K43" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="L43" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="O43" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5023,50 +5464,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>21207</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>118494</v>
+      </c>
+      <c r="C44" t="s">
+        <v>334</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="J44" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="K44" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="L44" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="O44" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5084,50 +5529,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>21207</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>109723</v>
+      </c>
+      <c r="C45" t="s">
+        <v>342</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="J45" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="K45" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="L45" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="O45" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P45" t="n">
         <v>2</v>
@@ -5151,50 +5600,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>21207</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>50980</v>
+      </c>
+      <c r="C46" t="s">
+        <v>348</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="J46" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="K46" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="L46" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="O46" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -5218,50 +5671,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>21207</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>35768</v>
+      </c>
+      <c r="C47" t="s">
+        <v>354</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="J47" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="K47" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="L47" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -5285,50 +5742,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>21207</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>123080</v>
+      </c>
+      <c r="C48" t="s">
+        <v>361</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="J48" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="K48" t="s">
-        <v>319</v>
+        <v>365</v>
       </c>
       <c r="L48" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="O48" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -5352,50 +5813,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>21207</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>153445</v>
+      </c>
+      <c r="C49" t="s">
+        <v>368</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="J49" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="K49" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="L49" t="s">
+        <v>373</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>360</v>
+      </c>
+      <c r="O49" t="s">
         <v>326</v>
-      </c>
-      <c r="M49" t="n">
-        <v>3</v>
-      </c>
-      <c r="N49" t="s">
-        <v>315</v>
-      </c>
-      <c r="O49" t="s">
-        <v>286</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5409,50 +5874,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>21207</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>153446</v>
+      </c>
+      <c r="C50" t="s">
+        <v>374</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>327</v>
+        <v>375</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>328</v>
+        <v>376</v>
       </c>
       <c r="J50" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="K50" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="L50" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="O50" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="n">
@@ -5470,50 +5939,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>21207</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>39469</v>
+      </c>
+      <c r="C51" t="s">
+        <v>381</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
       <c r="J51" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="K51" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="L51" t="s">
-        <v>337</v>
+        <v>386</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="O51" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5537,50 +6010,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>337</v>
+        <v>386</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>21207</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>89677</v>
+      </c>
+      <c r="C52" t="s">
+        <v>388</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="J52" t="s">
-        <v>341</v>
+        <v>391</v>
       </c>
       <c r="K52" t="s">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="L52" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="O52" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5604,50 +6081,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>344</v>
+        <v>394</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>21207</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>26513</v>
+      </c>
+      <c r="C53" t="s">
+        <v>395</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>345</v>
+        <v>396</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>346</v>
+        <v>397</v>
       </c>
       <c r="J53" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="K53" t="s">
-        <v>348</v>
+        <v>399</v>
       </c>
       <c r="L53" t="s">
-        <v>349</v>
+        <v>400</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>350</v>
+        <v>401</v>
       </c>
       <c r="O53" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5671,50 +6152,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>349</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>21207</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>153447</v>
+      </c>
+      <c r="C54" t="s">
+        <v>402</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="J54" t="s">
-        <v>353</v>
+        <v>405</v>
       </c>
       <c r="K54" t="s">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="L54" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>350</v>
+        <v>401</v>
       </c>
       <c r="O54" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5738,50 +6223,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>21207</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>2902</v>
+      </c>
+      <c r="C55" t="s">
+        <v>408</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>356</v>
+        <v>409</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>357</v>
+        <v>410</v>
       </c>
       <c r="J55" t="s">
-        <v>358</v>
+        <v>411</v>
       </c>
       <c r="K55" t="s">
-        <v>359</v>
+        <v>412</v>
       </c>
       <c r="L55" t="s">
-        <v>360</v>
+        <v>413</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>361</v>
+        <v>414</v>
       </c>
       <c r="O55" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -5805,50 +6294,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>360</v>
+        <v>413</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>21207</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>20275</v>
+      </c>
+      <c r="C56" t="s">
+        <v>415</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="J56" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="K56" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="L56" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>361</v>
+        <v>414</v>
       </c>
       <c r="O56" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5872,50 +6365,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>21207</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>5467</v>
+      </c>
+      <c r="C57" t="s">
+        <v>421</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>367</v>
+        <v>422</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>368</v>
+        <v>423</v>
       </c>
       <c r="J57" t="s">
-        <v>369</v>
+        <v>424</v>
       </c>
       <c r="K57" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="L57" t="s">
-        <v>371</v>
+        <v>426</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>372</v>
+        <v>427</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -5939,50 +6436,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>371</v>
+        <v>426</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>21207</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>13586</v>
+      </c>
+      <c r="C58" t="s">
+        <v>428</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>373</v>
+        <v>429</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>374</v>
+        <v>430</v>
       </c>
       <c r="J58" t="s">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="K58" t="s">
-        <v>376</v>
+        <v>432</v>
       </c>
       <c r="L58" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>372</v>
+        <v>427</v>
       </c>
       <c r="O58" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6006,50 +6507,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>21207</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>153448</v>
+      </c>
+      <c r="C59" t="s">
+        <v>434</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>378</v>
+        <v>435</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>379</v>
+        <v>436</v>
       </c>
       <c r="J59" t="s">
-        <v>380</v>
+        <v>437</v>
       </c>
       <c r="K59" t="s">
-        <v>381</v>
+        <v>438</v>
       </c>
       <c r="L59" t="s">
-        <v>382</v>
+        <v>439</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>383</v>
+        <v>440</v>
       </c>
       <c r="O59" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="n">
@@ -6069,50 +6574,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>382</v>
+        <v>439</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>21207</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>153449</v>
+      </c>
+      <c r="C60" t="s">
+        <v>441</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>384</v>
+        <v>442</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>385</v>
+        <v>443</v>
       </c>
       <c r="J60" t="s">
-        <v>386</v>
+        <v>444</v>
       </c>
       <c r="K60" t="s">
-        <v>387</v>
+        <v>445</v>
       </c>
       <c r="L60" t="s">
-        <v>388</v>
+        <v>446</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>383</v>
+        <v>440</v>
       </c>
       <c r="O60" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="n">
@@ -6132,50 +6641,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>388</v>
+        <v>446</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>21207</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>153450</v>
+      </c>
+      <c r="C61" t="s">
+        <v>447</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>389</v>
+        <v>448</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>390</v>
+        <v>449</v>
       </c>
       <c r="J61" t="s">
-        <v>391</v>
+        <v>450</v>
       </c>
       <c r="K61" t="s">
-        <v>392</v>
+        <v>451</v>
       </c>
       <c r="L61" t="s">
-        <v>393</v>
+        <v>452</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>394</v>
+        <v>453</v>
       </c>
       <c r="O61" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P61" t="n">
         <v>2</v>
@@ -6193,50 +6706,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>393</v>
+        <v>452</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>21207</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>153451</v>
+      </c>
+      <c r="C62" t="s">
+        <v>454</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>395</v>
+        <v>455</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>396</v>
+        <v>456</v>
       </c>
       <c r="J62" t="s">
-        <v>397</v>
+        <v>457</v>
       </c>
       <c r="K62" t="s">
-        <v>398</v>
+        <v>458</v>
       </c>
       <c r="L62" t="s">
-        <v>399</v>
+        <v>459</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6260,50 +6777,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>399</v>
+        <v>459</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>21207</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>100494</v>
+      </c>
+      <c r="C63" t="s">
+        <v>461</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>401</v>
+        <v>462</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>402</v>
+        <v>463</v>
       </c>
       <c r="J63" t="s">
-        <v>403</v>
+        <v>464</v>
       </c>
       <c r="K63" t="s">
-        <v>404</v>
+        <v>465</v>
       </c>
       <c r="L63" t="s">
-        <v>405</v>
+        <v>466</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>406</v>
+        <v>467</v>
       </c>
       <c r="O63" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="n">
@@ -6323,50 +6844,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>407</v>
+        <v>468</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>21207</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>153452</v>
+      </c>
+      <c r="C64" t="s">
+        <v>469</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>408</v>
+        <v>470</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>409</v>
+        <v>471</v>
       </c>
       <c r="J64" t="s">
-        <v>410</v>
+        <v>472</v>
       </c>
       <c r="K64" t="s">
-        <v>411</v>
+        <v>473</v>
       </c>
       <c r="L64" t="s">
-        <v>412</v>
+        <v>474</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>406</v>
+        <v>467</v>
       </c>
       <c r="O64" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6390,50 +6915,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>412</v>
+        <v>474</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>21207</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>123080</v>
+      </c>
+      <c r="C65" t="s">
+        <v>361</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>413</v>
+        <v>475</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>414</v>
+        <v>476</v>
       </c>
       <c r="J65" t="s">
-        <v>415</v>
+        <v>477</v>
       </c>
       <c r="K65" t="s">
         <v>36</v>
       </c>
       <c r="L65" t="s">
-        <v>416</v>
+        <v>478</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>417</v>
+        <v>479</v>
       </c>
       <c r="O65" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6457,50 +6986,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>416</v>
+        <v>478</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>21207</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>153453</v>
+      </c>
+      <c r="C66" t="s">
+        <v>480</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>418</v>
+        <v>481</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>419</v>
+        <v>482</v>
       </c>
       <c r="J66" t="s">
-        <v>415</v>
+        <v>477</v>
       </c>
       <c r="K66" t="s">
-        <v>420</v>
+        <v>483</v>
       </c>
       <c r="L66" t="s">
-        <v>421</v>
+        <v>484</v>
       </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>417</v>
+        <v>479</v>
       </c>
       <c r="O66" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -6524,50 +7057,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>422</v>
+        <v>485</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>21207</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>127653</v>
+      </c>
+      <c r="C67" t="s">
+        <v>486</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>423</v>
+        <v>487</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>424</v>
+        <v>488</v>
       </c>
       <c r="J67" t="s">
-        <v>425</v>
+        <v>489</v>
       </c>
       <c r="K67" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L67" t="s">
-        <v>426</v>
+        <v>490</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>427</v>
+        <v>491</v>
       </c>
       <c r="O67" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -6591,50 +7128,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>426</v>
+        <v>490</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>21207</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>153454</v>
+      </c>
+      <c r="C68" t="s">
+        <v>492</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>428</v>
+        <v>493</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>429</v>
+        <v>494</v>
       </c>
       <c r="J68" t="s">
-        <v>430</v>
+        <v>495</v>
       </c>
       <c r="K68" t="s">
-        <v>431</v>
+        <v>496</v>
       </c>
       <c r="L68" t="s">
-        <v>432</v>
+        <v>497</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>433</v>
+        <v>498</v>
       </c>
       <c r="O68" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -6658,50 +7199,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>434</v>
+        <v>499</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>21207</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>153455</v>
+      </c>
+      <c r="C69" t="s">
+        <v>500</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>435</v>
+        <v>501</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>436</v>
+        <v>502</v>
       </c>
       <c r="J69" t="s">
-        <v>437</v>
+        <v>503</v>
       </c>
       <c r="K69" t="s">
-        <v>438</v>
+        <v>504</v>
       </c>
       <c r="L69" t="s">
-        <v>439</v>
+        <v>505</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>433</v>
+        <v>498</v>
       </c>
       <c r="O69" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="n">
@@ -6719,50 +7264,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>440</v>
+        <v>506</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>21207</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>53705</v>
+      </c>
+      <c r="C70" t="s">
+        <v>507</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>441</v>
+        <v>508</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>442</v>
+        <v>509</v>
       </c>
       <c r="J70" t="s">
-        <v>437</v>
+        <v>503</v>
       </c>
       <c r="K70" t="s">
-        <v>443</v>
+        <v>510</v>
       </c>
       <c r="L70" t="s">
-        <v>444</v>
+        <v>511</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>433</v>
+        <v>498</v>
       </c>
       <c r="O70" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6786,50 +7335,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>445</v>
+        <v>512</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>21207</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>153456</v>
+      </c>
+      <c r="C71" t="s">
+        <v>513</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>446</v>
+        <v>514</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>447</v>
+        <v>515</v>
       </c>
       <c r="J71" t="s">
-        <v>448</v>
+        <v>516</v>
       </c>
       <c r="K71" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="L71" t="s">
-        <v>450</v>
+        <v>518</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>394</v>
+        <v>453</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="n">
         <v>3</v>
@@ -6849,50 +7402,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>450</v>
+        <v>518</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>21207</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>153457</v>
+      </c>
+      <c r="C72" t="s">
+        <v>519</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>451</v>
+        <v>520</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>452</v>
+        <v>521</v>
       </c>
       <c r="J72" t="s">
+        <v>522</v>
+      </c>
+      <c r="K72" t="s">
+        <v>523</v>
+      </c>
+      <c r="L72" t="s">
+        <v>524</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
         <v>453</v>
       </c>
-      <c r="K72" t="s">
-        <v>454</v>
-      </c>
-      <c r="L72" t="s">
-        <v>455</v>
-      </c>
-      <c r="M72" t="n">
-        <v>4</v>
-      </c>
-      <c r="N72" t="s">
-        <v>394</v>
-      </c>
       <c r="O72" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -6916,50 +7473,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>455</v>
+        <v>524</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>21207</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>8690</v>
+      </c>
+      <c r="C73" t="s">
+        <v>525</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>456</v>
+        <v>526</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>457</v>
+        <v>527</v>
       </c>
       <c r="J73" t="s">
-        <v>458</v>
+        <v>528</v>
       </c>
       <c r="K73" t="s">
-        <v>459</v>
+        <v>529</v>
       </c>
       <c r="L73" t="s">
-        <v>460</v>
+        <v>530</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>394</v>
+        <v>453</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>4</v>
@@ -6983,50 +7544,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>460</v>
+        <v>530</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>21207</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>153458</v>
+      </c>
+      <c r="C74" t="s">
+        <v>531</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>461</v>
+        <v>532</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>462</v>
+        <v>533</v>
       </c>
       <c r="J74" t="s">
-        <v>463</v>
+        <v>534</v>
       </c>
       <c r="K74" t="s">
-        <v>464</v>
+        <v>535</v>
       </c>
       <c r="L74" t="s">
-        <v>465</v>
+        <v>536</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>466</v>
+        <v>537</v>
       </c>
       <c r="O74" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -7048,50 +7613,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>465</v>
+        <v>536</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>21207</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>47911</v>
+      </c>
+      <c r="C75" t="s">
+        <v>538</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>467</v>
+        <v>539</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>468</v>
+        <v>540</v>
       </c>
       <c r="J75" t="s">
-        <v>469</v>
+        <v>541</v>
       </c>
       <c r="K75" t="s">
-        <v>470</v>
+        <v>542</v>
       </c>
       <c r="L75" t="s">
-        <v>471</v>
+        <v>543</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>472</v>
+        <v>544</v>
       </c>
       <c r="O75" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7115,50 +7684,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>471</v>
+        <v>543</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>21207</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>153459</v>
+      </c>
+      <c r="C76" t="s">
+        <v>545</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>473</v>
+        <v>546</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>474</v>
+        <v>547</v>
       </c>
       <c r="J76" t="s">
-        <v>475</v>
+        <v>548</v>
       </c>
       <c r="K76" t="s">
-        <v>476</v>
+        <v>549</v>
       </c>
       <c r="L76" t="s">
-        <v>477</v>
+        <v>550</v>
       </c>
       <c r="M76" t="n">
         <v>2</v>
       </c>
       <c r="N76" t="s">
-        <v>478</v>
+        <v>551</v>
       </c>
       <c r="O76" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -7182,50 +7755,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>477</v>
+        <v>550</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>21207</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>153460</v>
+      </c>
+      <c r="C77" t="s">
+        <v>552</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>479</v>
+        <v>553</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>480</v>
+        <v>554</v>
       </c>
       <c r="J77" t="s">
-        <v>481</v>
+        <v>555</v>
       </c>
       <c r="K77" t="s">
-        <v>482</v>
+        <v>556</v>
       </c>
       <c r="L77" t="s">
-        <v>483</v>
+        <v>557</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>484</v>
+        <v>558</v>
       </c>
       <c r="O77" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7249,50 +7826,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>483</v>
+        <v>557</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>21207</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>153461</v>
+      </c>
+      <c r="C78" t="s">
+        <v>559</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>485</v>
+        <v>560</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>486</v>
+        <v>561</v>
       </c>
       <c r="J78" t="s">
-        <v>487</v>
+        <v>562</v>
       </c>
       <c r="K78" t="s">
-        <v>488</v>
+        <v>563</v>
       </c>
       <c r="L78" t="s">
-        <v>489</v>
+        <v>564</v>
       </c>
       <c r="M78" t="n">
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>490</v>
+        <v>565</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7316,50 +7897,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>491</v>
+        <v>566</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>21207</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>12540</v>
+      </c>
+      <c r="C79" t="s">
+        <v>567</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>492</v>
+        <v>568</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>493</v>
+        <v>569</v>
       </c>
       <c r="J79" t="s">
-        <v>494</v>
+        <v>570</v>
       </c>
       <c r="K79" t="s">
-        <v>495</v>
+        <v>571</v>
       </c>
       <c r="L79" t="s">
-        <v>496</v>
+        <v>572</v>
       </c>
       <c r="M79" t="n">
         <v>2</v>
       </c>
       <c r="N79" t="s">
-        <v>490</v>
+        <v>565</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>2</v>
@@ -7383,41 +7968,45 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>497</v>
+        <v>573</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>21207</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>153462</v>
+      </c>
+      <c r="C80" t="s">
+        <v>574</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>498</v>
+        <v>575</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>499</v>
+        <v>576</v>
       </c>
       <c r="J80" t="s">
-        <v>500</v>
+        <v>577</v>
       </c>
       <c r="K80" t="s">
-        <v>501</v>
+        <v>578</v>
       </c>
       <c r="L80" t="s">
-        <v>502</v>
+        <v>579</v>
       </c>
       <c r="M80" t="n">
         <v>1</v>
@@ -7446,50 +8035,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>503</v>
+        <v>580</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>21207</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>153463</v>
+      </c>
+      <c r="C81" t="s">
+        <v>581</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>504</v>
+        <v>582</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>505</v>
+        <v>583</v>
       </c>
       <c r="J81" t="s">
-        <v>506</v>
+        <v>584</v>
       </c>
       <c r="K81" t="s">
-        <v>507</v>
+        <v>585</v>
       </c>
       <c r="L81" t="s">
-        <v>508</v>
+        <v>586</v>
       </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
       <c r="N81" t="s">
-        <v>509</v>
+        <v>587</v>
       </c>
       <c r="O81" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P81" t="n">
         <v>2</v>
@@ -7513,50 +8106,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>508</v>
+        <v>586</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>21207</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>153464</v>
+      </c>
+      <c r="C82" t="s">
+        <v>588</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>510</v>
+        <v>589</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>511</v>
+        <v>590</v>
       </c>
       <c r="J82" t="s">
-        <v>512</v>
+        <v>591</v>
       </c>
       <c r="K82" t="s">
-        <v>513</v>
+        <v>592</v>
       </c>
       <c r="L82" t="s">
-        <v>514</v>
+        <v>593</v>
       </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
       <c r="N82" t="s">
-        <v>509</v>
+        <v>587</v>
       </c>
       <c r="O82" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P82" t="n">
         <v>3</v>
@@ -7580,50 +8177,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>515</v>
+        <v>594</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>21207</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>153465</v>
+      </c>
+      <c r="C83" t="s">
+        <v>595</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>516</v>
+        <v>596</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>517</v>
+        <v>597</v>
       </c>
       <c r="J83" t="s">
-        <v>518</v>
+        <v>598</v>
       </c>
       <c r="K83" t="s">
-        <v>519</v>
+        <v>599</v>
       </c>
       <c r="L83" t="s">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
       </c>
       <c r="N83" t="s">
-        <v>521</v>
+        <v>601</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>3</v>
@@ -7647,41 +8248,45 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>522</v>
+        <v>602</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>21207</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>153466</v>
+      </c>
+      <c r="C84" t="s">
+        <v>603</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>523</v>
+        <v>604</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>524</v>
+        <v>605</v>
       </c>
       <c r="J84" t="s">
-        <v>525</v>
+        <v>606</v>
       </c>
       <c r="K84" t="s">
-        <v>526</v>
+        <v>607</v>
       </c>
       <c r="L84" t="s">
-        <v>527</v>
+        <v>608</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
@@ -7710,50 +8315,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>528</v>
+        <v>609</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>21207</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>153467</v>
+      </c>
+      <c r="C85" t="s">
+        <v>610</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>529</v>
+        <v>611</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>530</v>
+        <v>612</v>
       </c>
       <c r="J85" t="s">
-        <v>531</v>
+        <v>613</v>
       </c>
       <c r="K85" t="s">
-        <v>532</v>
+        <v>614</v>
       </c>
       <c r="L85" t="s">
-        <v>533</v>
+        <v>615</v>
       </c>
       <c r="M85" t="n">
         <v>3</v>
       </c>
       <c r="N85" t="s">
-        <v>534</v>
+        <v>616</v>
       </c>
       <c r="O85" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="s"/>
@@ -7767,50 +8376,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>533</v>
+        <v>615</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>21207</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>153468</v>
+      </c>
+      <c r="C86" t="s">
+        <v>617</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>535</v>
+        <v>618</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>536</v>
+        <v>619</v>
       </c>
       <c r="J86" t="s">
-        <v>537</v>
+        <v>620</v>
       </c>
       <c r="K86" t="s">
-        <v>538</v>
+        <v>621</v>
       </c>
       <c r="L86" t="s">
-        <v>539</v>
+        <v>622</v>
       </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
       <c r="N86" t="s">
-        <v>540</v>
+        <v>623</v>
       </c>
       <c r="O86" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="P86" t="n">
         <v>1</v>
@@ -7834,50 +8447,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>539</v>
+        <v>622</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>21207</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>153469</v>
+      </c>
+      <c r="C87" t="s">
+        <v>624</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>541</v>
+        <v>625</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>542</v>
+        <v>626</v>
       </c>
       <c r="J87" t="s">
-        <v>543</v>
+        <v>627</v>
       </c>
       <c r="K87" t="s">
-        <v>544</v>
+        <v>628</v>
       </c>
       <c r="L87" t="s">
-        <v>545</v>
+        <v>629</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>546</v>
+        <v>630</v>
       </c>
       <c r="O87" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -7901,50 +8518,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>545</v>
+        <v>629</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>21207</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>153470</v>
+      </c>
+      <c r="C88" t="s">
+        <v>631</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>547</v>
+        <v>632</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>548</v>
+        <v>633</v>
       </c>
       <c r="J88" t="s">
-        <v>549</v>
+        <v>634</v>
       </c>
       <c r="K88" t="s">
-        <v>550</v>
+        <v>635</v>
       </c>
       <c r="L88" t="s">
-        <v>551</v>
+        <v>636</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>552</v>
+        <v>637</v>
       </c>
       <c r="O88" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -7968,50 +8589,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>551</v>
+        <v>636</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>21207</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>153471</v>
+      </c>
+      <c r="C89" t="s">
+        <v>638</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>553</v>
+        <v>639</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>554</v>
+        <v>640</v>
       </c>
       <c r="J89" t="s">
-        <v>555</v>
+        <v>641</v>
       </c>
       <c r="K89" t="s">
-        <v>556</v>
+        <v>642</v>
       </c>
       <c r="L89" t="s">
-        <v>557</v>
+        <v>643</v>
       </c>
       <c r="M89" t="n">
         <v>3</v>
       </c>
       <c r="N89" t="s">
-        <v>558</v>
+        <v>644</v>
       </c>
       <c r="O89" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="P89" t="n">
         <v>3</v>
@@ -8035,50 +8660,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>559</v>
+        <v>645</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>21207</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>646</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>560</v>
+        <v>647</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>561</v>
+        <v>648</v>
       </c>
       <c r="J90" t="s">
-        <v>562</v>
+        <v>649</v>
       </c>
       <c r="K90" t="s">
-        <v>563</v>
+        <v>650</v>
       </c>
       <c r="L90" t="s">
-        <v>564</v>
+        <v>651</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>565</v>
+        <v>652</v>
       </c>
       <c r="O90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8100,50 +8729,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>564</v>
+        <v>651</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>21207</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>153472</v>
+      </c>
+      <c r="C91" t="s">
+        <v>653</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>566</v>
+        <v>654</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>567</v>
+        <v>655</v>
       </c>
       <c r="J91" t="s">
-        <v>568</v>
+        <v>656</v>
       </c>
       <c r="K91" t="s">
-        <v>569</v>
+        <v>657</v>
       </c>
       <c r="L91" t="s">
-        <v>570</v>
+        <v>658</v>
       </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
       <c r="N91" t="s">
-        <v>565</v>
+        <v>652</v>
       </c>
       <c r="O91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P91" t="n">
         <v>1</v>
@@ -8165,41 +8798,45 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>570</v>
+        <v>658</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>21207</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>153473</v>
+      </c>
+      <c r="C92" t="s">
+        <v>659</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>571</v>
+        <v>660</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>572</v>
+        <v>661</v>
       </c>
       <c r="J92" t="s">
-        <v>573</v>
+        <v>662</v>
       </c>
       <c r="K92" t="s">
-        <v>574</v>
+        <v>663</v>
       </c>
       <c r="L92" t="s">
-        <v>575</v>
+        <v>664</v>
       </c>
       <c r="M92" t="n">
         <v>1</v>
@@ -8226,41 +8863,45 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>576</v>
+        <v>665</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>21207</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>153474</v>
+      </c>
+      <c r="C93" t="s">
+        <v>666</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>577</v>
+        <v>667</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>578</v>
+        <v>668</v>
       </c>
       <c r="J93" t="s">
-        <v>579</v>
+        <v>669</v>
       </c>
       <c r="K93" t="s">
-        <v>580</v>
+        <v>670</v>
       </c>
       <c r="L93" t="s">
-        <v>581</v>
+        <v>671</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
@@ -8287,41 +8928,45 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>581</v>
+        <v>671</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>21207</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>153475</v>
+      </c>
+      <c r="C94" t="s">
+        <v>672</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>582</v>
+        <v>673</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>583</v>
+        <v>674</v>
       </c>
       <c r="J94" t="s">
-        <v>584</v>
+        <v>675</v>
       </c>
       <c r="K94" t="s">
-        <v>398</v>
+        <v>458</v>
       </c>
       <c r="L94" t="s">
-        <v>585</v>
+        <v>676</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
@@ -8348,7 +8993,7 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>585</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>
